--- a/Data(update).xlsx
+++ b/Data(update).xlsx
@@ -26,7 +26,7 @@
           </x:rPr>
           <x:t xml:space="preserve">Column chart showing: Antal Personrejser per  Afgangsdato År - Måned - Dato  Dato
 Local criteria:
- Afgangsdato År -  Dato &lt;= Previous year (2023)</x:t>
+ Afgangsdato År -  Dato &lt;= Previous year (2024)</x:t>
         </x:r>
       </x:text>
     </x:comment>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
   <x:si>
     <x:t>Afgangsdato År - Måned - Dato</x:t>
   </x:si>
@@ -79,1135 +79,1141 @@
     <x:t>2023</x:t>
   </x:si>
   <x:si>
+    <x:t>2024</x:t>
+  </x:si>
+  <x:si>
     <x:t>Jan</x:t>
   </x:si>
   <x:si>
-    <x:t>01-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30-01-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31-01-2023</x:t>
+    <x:t>01-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-01-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-01-2024</x:t>
   </x:si>
   <x:si>
     <x:t>Feb</x:t>
   </x:si>
   <x:si>
-    <x:t>01-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27-02-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28-02-2023</x:t>
+    <x:t>01-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-02-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-02-2024</x:t>
   </x:si>
   <x:si>
     <x:t>Mar</x:t>
   </x:si>
   <x:si>
-    <x:t>01-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30-03-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31-03-2023</x:t>
+    <x:t>01-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-03-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-03-2024</x:t>
   </x:si>
   <x:si>
     <x:t>Apr</x:t>
   </x:si>
   <x:si>
-    <x:t>01-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29-04-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30-04-2023</x:t>
+    <x:t>01-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-04-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-04-2024</x:t>
   </x:si>
   <x:si>
     <x:t>Maj</x:t>
   </x:si>
   <x:si>
-    <x:t>01-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30-05-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31-05-2023</x:t>
+    <x:t>01-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-05-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-05-2024</x:t>
   </x:si>
   <x:si>
     <x:t>Jun</x:t>
   </x:si>
   <x:si>
-    <x:t>01-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29-06-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30-06-2023</x:t>
+    <x:t>01-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-06-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-06-2024</x:t>
   </x:si>
   <x:si>
     <x:t>Jul</x:t>
   </x:si>
   <x:si>
-    <x:t>01-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30-07-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31-07-2023</x:t>
+    <x:t>01-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-07-2024</x:t>
   </x:si>
   <x:si>
     <x:t>Aug</x:t>
   </x:si>
   <x:si>
-    <x:t>01-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30-08-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31-08-2023</x:t>
+    <x:t>01-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-08-2024</x:t>
   </x:si>
   <x:si>
     <x:t>Sep</x:t>
   </x:si>
   <x:si>
-    <x:t>01-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29-09-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30-09-2023</x:t>
+    <x:t>01-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-09-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-09-2024</x:t>
   </x:si>
   <x:si>
     <x:t>Okt</x:t>
   </x:si>
   <x:si>
-    <x:t>01-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30-10-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31-10-2023</x:t>
+    <x:t>01-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-10-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-10-2024</x:t>
   </x:si>
   <x:si>
     <x:t>Nov</x:t>
   </x:si>
   <x:si>
-    <x:t>01-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29-11-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30-11-2023</x:t>
+    <x:t>01-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-11-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-11-2024</x:t>
   </x:si>
   <x:si>
     <x:t>Dec</x:t>
   </x:si>
   <x:si>
-    <x:t>01-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30-12-2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31-12-2023</x:t>
+    <x:t>01-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-12-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-12-2024</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1308,28 +1314,28 @@
     <x:xf numFmtId="200" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="top"/>
     </x:xf>
-    <x:xf fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="left" vertical="top"/>
     </x:xf>
-    <x:xf numFmtId="200" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <x:xf numFmtId="200" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="top"/>
+    </x:xf>
+    <x:xf fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="left" vertical="top" indent="1"/>
+    </x:xf>
+    <x:xf numFmtId="200" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="top"/>
+    </x:xf>
+    <x:xf fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="left" vertical="top" indent="2"/>
+    </x:xf>
+    <x:xf fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="left" vertical="top" indent="2"/>
     </x:xf>
     <x:xf fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="left" vertical="top" indent="1"/>
     </x:xf>
     <x:xf numFmtId="200" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="top"/>
-    </x:xf>
-    <x:xf fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <x:alignment horizontal="left" vertical="top" indent="2"/>
-    </x:xf>
-    <x:xf fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <x:alignment horizontal="left" vertical="top" indent="2"/>
-    </x:xf>
-    <x:xf fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <x:alignment horizontal="left" vertical="top" indent="1"/>
-    </x:xf>
-    <x:xf numFmtId="200" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="top"/>
     </x:xf>
   </x:cellXfs>
@@ -1342,7 +1348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:B390"/>
+  <x:dimension ref="A1:B392"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -1364,7 +1370,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="4">
-        <x:v>1353249993</x:v>
+        <x:v>1518274693</x:v>
       </x:c>
     </x:row>
     <x:row r="3" ht="13" customHeight="1">
@@ -1448,3027 +1454,3043 @@
       </x:c>
     </x:row>
     <x:row r="13" ht="13" customHeight="1">
-      <x:c r="A13" s="9" t="s">
+      <x:c r="A13" s="5" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B13" s="10">
+      <x:c r="B13" s="6">
         <x:v>184021856</x:v>
       </x:c>
     </x:row>
     <x:row r="14" ht="13" customHeight="1">
-      <x:c r="A14" s="11" t="s">
+      <x:c r="A14" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B14" s="12">
-        <x:v>15992455</x:v>
+      <x:c r="B14" s="10">
+        <x:v>165024700</x:v>
       </x:c>
     </x:row>
     <x:row r="15" ht="13" customHeight="1">
-      <x:c r="A15" s="13" t="s">
+      <x:c r="A15" s="11" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B15" s="6">
-        <x:v>251209</x:v>
+      <x:c r="B15" s="12">
+        <x:v>16249214</x:v>
       </x:c>
     </x:row>
     <x:row r="16" ht="13" customHeight="1">
-      <x:c r="A16" s="14" t="s">
+      <x:c r="A16" s="13" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="B16" s="8">
-        <x:v>407066</x:v>
+        <x:v>239739</x:v>
       </x:c>
     </x:row>
     <x:row r="17" ht="13" customHeight="1">
-      <x:c r="A17" s="13" t="s">
+      <x:c r="A17" s="14" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B17" s="6">
-        <x:v>503488</x:v>
+        <x:v>403500</x:v>
       </x:c>
     </x:row>
     <x:row r="18" ht="13" customHeight="1">
-      <x:c r="A18" s="14" t="s">
+      <x:c r="A18" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="B18" s="8">
-        <x:v>576027</x:v>
+        <x:v>412151</x:v>
       </x:c>
     </x:row>
     <x:row r="19" ht="13" customHeight="1">
-      <x:c r="A19" s="13" t="s">
+      <x:c r="A19" s="14" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="B19" s="6">
-        <x:v>577789</x:v>
+        <x:v>504834</x:v>
       </x:c>
     </x:row>
     <x:row r="20" ht="13" customHeight="1">
-      <x:c r="A20" s="14" t="s">
+      <x:c r="A20" s="13" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="B20" s="8">
-        <x:v>620914</x:v>
+        <x:v>604338</x:v>
       </x:c>
     </x:row>
     <x:row r="21" ht="13" customHeight="1">
-      <x:c r="A21" s="13" t="s">
+      <x:c r="A21" s="14" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="B21" s="6">
-        <x:v>379281</x:v>
+        <x:v>376211</x:v>
       </x:c>
     </x:row>
     <x:row r="22" ht="13" customHeight="1">
-      <x:c r="A22" s="14" t="s">
+      <x:c r="A22" s="13" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="B22" s="8">
-        <x:v>265662</x:v>
+        <x:v>276277</x:v>
       </x:c>
     </x:row>
     <x:row r="23" ht="13" customHeight="1">
-      <x:c r="A23" s="13" t="s">
+      <x:c r="A23" s="14" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="B23" s="6">
-        <x:v>575639</x:v>
+        <x:v>611928</x:v>
       </x:c>
     </x:row>
     <x:row r="24" ht="13" customHeight="1">
-      <x:c r="A24" s="14" t="s">
+      <x:c r="A24" s="13" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B24" s="8">
-        <x:v>594819</x:v>
+        <x:v>638872</x:v>
       </x:c>
     </x:row>
     <x:row r="25" ht="13" customHeight="1">
-      <x:c r="A25" s="13" t="s">
+      <x:c r="A25" s="14" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="B25" s="6">
-        <x:v>610327</x:v>
+        <x:v>636759</x:v>
       </x:c>
     </x:row>
     <x:row r="26" ht="13" customHeight="1">
-      <x:c r="A26" s="14" t="s">
+      <x:c r="A26" s="13" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="B26" s="8">
-        <x:v>613331</x:v>
+        <x:v>640428</x:v>
       </x:c>
     </x:row>
     <x:row r="27" ht="13" customHeight="1">
-      <x:c r="A27" s="13" t="s">
+      <x:c r="A27" s="14" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="B27" s="6">
-        <x:v>650957</x:v>
+        <x:v>672711</x:v>
       </x:c>
     </x:row>
     <x:row r="28" ht="13" customHeight="1">
-      <x:c r="A28" s="14" t="s">
+      <x:c r="A28" s="13" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="B28" s="8">
-        <x:v>416375</x:v>
+        <x:v>405934</x:v>
       </x:c>
     </x:row>
     <x:row r="29" ht="13" customHeight="1">
-      <x:c r="A29" s="13" t="s">
+      <x:c r="A29" s="14" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="B29" s="6">
-        <x:v>278943</x:v>
+        <x:v>407804</x:v>
       </x:c>
     </x:row>
     <x:row r="30" ht="13" customHeight="1">
-      <x:c r="A30" s="14" t="s">
+      <x:c r="A30" s="13" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="B30" s="8">
-        <x:v>579237</x:v>
+        <x:v>627355</x:v>
       </x:c>
     </x:row>
     <x:row r="31" ht="13" customHeight="1">
-      <x:c r="A31" s="13" t="s">
+      <x:c r="A31" s="14" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="B31" s="6">
-        <x:v>633218</x:v>
+        <x:v>649882</x:v>
       </x:c>
     </x:row>
     <x:row r="32" ht="13" customHeight="1">
-      <x:c r="A32" s="14" t="s">
+      <x:c r="A32" s="13" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="B32" s="8">
-        <x:v>606263</x:v>
+        <x:v>642563</x:v>
       </x:c>
     </x:row>
     <x:row r="33" ht="13" customHeight="1">
-      <x:c r="A33" s="13" t="s">
+      <x:c r="A33" s="14" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="B33" s="6">
-        <x:v>623587</x:v>
+        <x:v>673195</x:v>
       </x:c>
     </x:row>
     <x:row r="34" ht="13" customHeight="1">
-      <x:c r="A34" s="14" t="s">
+      <x:c r="A34" s="13" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="B34" s="8">
-        <x:v>651000</x:v>
+        <x:v>686549</x:v>
       </x:c>
     </x:row>
     <x:row r="35" ht="13" customHeight="1">
-      <x:c r="A35" s="13" t="s">
+      <x:c r="A35" s="14" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="B35" s="6">
-        <x:v>419838</x:v>
+        <x:v>413510</x:v>
       </x:c>
     </x:row>
     <x:row r="36" ht="13" customHeight="1">
-      <x:c r="A36" s="14" t="s">
+      <x:c r="A36" s="13" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="B36" s="8">
-        <x:v>281219</x:v>
+        <x:v>286710</x:v>
       </x:c>
     </x:row>
     <x:row r="37" ht="13" customHeight="1">
-      <x:c r="A37" s="13" t="s">
+      <x:c r="A37" s="14" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="B37" s="6">
-        <x:v>563052</x:v>
+        <x:v>587242</x:v>
       </x:c>
     </x:row>
     <x:row r="38" ht="13" customHeight="1">
-      <x:c r="A38" s="14" t="s">
+      <x:c r="A38" s="13" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="B38" s="8">
-        <x:v>589108</x:v>
+        <x:v>591811</x:v>
       </x:c>
     </x:row>
     <x:row r="39" ht="13" customHeight="1">
-      <x:c r="A39" s="13" t="s">
+      <x:c r="A39" s="14" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="B39" s="6">
-        <x:v>594892</x:v>
+        <x:v>606396</x:v>
       </x:c>
     </x:row>
     <x:row r="40" ht="13" customHeight="1">
-      <x:c r="A40" s="14" t="s">
+      <x:c r="A40" s="13" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="B40" s="8">
-        <x:v>610039</x:v>
+        <x:v>615046</x:v>
       </x:c>
     </x:row>
     <x:row r="41" ht="13" customHeight="1">
-      <x:c r="A41" s="13" t="s">
+      <x:c r="A41" s="14" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="B41" s="6">
-        <x:v>641543</x:v>
+        <x:v>632627</x:v>
       </x:c>
     </x:row>
     <x:row r="42" ht="13" customHeight="1">
-      <x:c r="A42" s="14" t="s">
+      <x:c r="A42" s="13" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="B42" s="8">
-        <x:v>402795</x:v>
+        <x:v>408851</x:v>
       </x:c>
     </x:row>
     <x:row r="43" ht="13" customHeight="1">
-      <x:c r="A43" s="13" t="s">
+      <x:c r="A43" s="14" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="B43" s="6">
-        <x:v>278619</x:v>
+        <x:v>278603</x:v>
       </x:c>
     </x:row>
     <x:row r="44" ht="13" customHeight="1">
-      <x:c r="A44" s="14" t="s">
+      <x:c r="A44" s="13" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="B44" s="8">
-        <x:v>578339</x:v>
+        <x:v>544602</x:v>
       </x:c>
     </x:row>
     <x:row r="45" ht="13" customHeight="1">
-      <x:c r="A45" s="13" t="s">
+      <x:c r="A45" s="14" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="B45" s="6">
-        <x:v>617879</x:v>
+        <x:v>568682</x:v>
       </x:c>
     </x:row>
     <x:row r="46" ht="13" customHeight="1">
-      <x:c r="A46" s="11" t="s">
+      <x:c r="A46" s="13" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B46" s="12">
-        <x:v>14607364</x:v>
+      <x:c r="B46" s="8">
+        <x:v>604104</x:v>
       </x:c>
     </x:row>
     <x:row r="47" ht="13" customHeight="1">
-      <x:c r="A47" s="13" t="s">
+      <x:c r="A47" s="11" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="B47" s="6">
-        <x:v>631649</x:v>
+      <x:c r="B47" s="12">
+        <x:v>14495019</x:v>
       </x:c>
     </x:row>
     <x:row r="48" ht="13" customHeight="1">
-      <x:c r="A48" s="14" t="s">
+      <x:c r="A48" s="13" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="B48" s="8">
-        <x:v>635930</x:v>
+        <x:v>627946</x:v>
       </x:c>
     </x:row>
     <x:row r="49" ht="13" customHeight="1">
-      <x:c r="A49" s="13" t="s">
+      <x:c r="A49" s="14" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="B49" s="6">
-        <x:v>703621</x:v>
+        <x:v>658134</x:v>
       </x:c>
     </x:row>
     <x:row r="50" ht="13" customHeight="1">
-      <x:c r="A50" s="14" t="s">
+      <x:c r="A50" s="13" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="B50" s="8">
-        <x:v>441314</x:v>
+        <x:v>432372</x:v>
       </x:c>
     </x:row>
     <x:row r="51" ht="13" customHeight="1">
-      <x:c r="A51" s="13" t="s">
+      <x:c r="A51" s="14" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="B51" s="6">
-        <x:v>296233</x:v>
+        <x:v>285884</x:v>
       </x:c>
     </x:row>
     <x:row r="52" ht="13" customHeight="1">
-      <x:c r="A52" s="14" t="s">
+      <x:c r="A52" s="13" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="B52" s="8">
-        <x:v>587333</x:v>
+        <x:v>583308</x:v>
       </x:c>
     </x:row>
     <x:row r="53" ht="13" customHeight="1">
-      <x:c r="A53" s="13" t="s">
+      <x:c r="A53" s="14" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="B53" s="6">
-        <x:v>609018</x:v>
+        <x:v>636224</x:v>
       </x:c>
     </x:row>
     <x:row r="54" ht="13" customHeight="1">
-      <x:c r="A54" s="14" t="s">
+      <x:c r="A54" s="13" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="B54" s="8">
-        <x:v>615097</x:v>
+        <x:v>609703</x:v>
       </x:c>
     </x:row>
     <x:row r="55" ht="13" customHeight="1">
-      <x:c r="A55" s="13" t="s">
+      <x:c r="A55" s="14" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="B55" s="6">
-        <x:v>622247</x:v>
+        <x:v>624417</x:v>
       </x:c>
     </x:row>
     <x:row r="56" ht="13" customHeight="1">
-      <x:c r="A56" s="14" t="s">
+      <x:c r="A56" s="13" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="B56" s="8">
-        <x:v>645855</x:v>
+        <x:v>645203</x:v>
       </x:c>
     </x:row>
     <x:row r="57" ht="13" customHeight="1">
-      <x:c r="A57" s="13" t="s">
+      <x:c r="A57" s="14" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="B57" s="6">
-        <x:v>414786</x:v>
+        <x:v>376014</x:v>
       </x:c>
     </x:row>
     <x:row r="58" ht="13" customHeight="1">
-      <x:c r="A58" s="14" t="s">
+      <x:c r="A58" s="13" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="B58" s="8">
-        <x:v>285722</x:v>
+        <x:v>260715</x:v>
       </x:c>
     </x:row>
     <x:row r="59" ht="13" customHeight="1">
-      <x:c r="A59" s="13" t="s">
+      <x:c r="A59" s="14" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="B59" s="6">
-        <x:v>470181</x:v>
+        <x:v>461420</x:v>
       </x:c>
     </x:row>
     <x:row r="60" ht="13" customHeight="1">
-      <x:c r="A60" s="14" t="s">
+      <x:c r="A60" s="13" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="B60" s="8">
-        <x:v>510949</x:v>
+        <x:v>491512</x:v>
       </x:c>
     </x:row>
     <x:row r="61" ht="13" customHeight="1">
-      <x:c r="A61" s="13" t="s">
+      <x:c r="A61" s="14" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="B61" s="6">
-        <x:v>498030</x:v>
+        <x:v>487681</x:v>
       </x:c>
     </x:row>
     <x:row r="62" ht="13" customHeight="1">
-      <x:c r="A62" s="14" t="s">
+      <x:c r="A62" s="13" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="B62" s="8">
-        <x:v>512074</x:v>
+        <x:v>481729</x:v>
       </x:c>
     </x:row>
     <x:row r="63" ht="13" customHeight="1">
-      <x:c r="A63" s="13" t="s">
+      <x:c r="A63" s="14" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="B63" s="6">
-        <x:v>516653</x:v>
+        <x:v>496819</x:v>
       </x:c>
     </x:row>
     <x:row r="64" ht="13" customHeight="1">
-      <x:c r="A64" s="14" t="s">
+      <x:c r="A64" s="13" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="B64" s="8">
-        <x:v>410883</x:v>
+        <x:v>377247</x:v>
       </x:c>
     </x:row>
     <x:row r="65" ht="13" customHeight="1">
-      <x:c r="A65" s="13" t="s">
+      <x:c r="A65" s="14" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="B65" s="6">
-        <x:v>294547</x:v>
+        <x:v>256699</x:v>
       </x:c>
     </x:row>
     <x:row r="66" ht="13" customHeight="1">
-      <x:c r="A66" s="14" t="s">
+      <x:c r="A66" s="13" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="B66" s="8">
-        <x:v>562050</x:v>
+        <x:v>512317</x:v>
       </x:c>
     </x:row>
     <x:row r="67" ht="13" customHeight="1">
-      <x:c r="A67" s="13" t="s">
+      <x:c r="A67" s="14" t="s">
         <x:v>67</x:v>
       </x:c>
       <x:c r="B67" s="6">
-        <x:v>578131</x:v>
+        <x:v>537391</x:v>
       </x:c>
     </x:row>
     <x:row r="68" ht="13" customHeight="1">
-      <x:c r="A68" s="14" t="s">
+      <x:c r="A68" s="13" t="s">
         <x:v>68</x:v>
       </x:c>
       <x:c r="B68" s="8">
-        <x:v>579853</x:v>
+        <x:v>543164</x:v>
       </x:c>
     </x:row>
     <x:row r="69" ht="13" customHeight="1">
-      <x:c r="A69" s="13" t="s">
+      <x:c r="A69" s="14" t="s">
         <x:v>69</x:v>
       </x:c>
       <x:c r="B69" s="6">
-        <x:v>602543</x:v>
+        <x:v>549905</x:v>
       </x:c>
     </x:row>
     <x:row r="70" ht="13" customHeight="1">
-      <x:c r="A70" s="14" t="s">
+      <x:c r="A70" s="13" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="B70" s="8">
-        <x:v>656729</x:v>
+        <x:v>590642</x:v>
       </x:c>
     </x:row>
     <x:row r="71" ht="13" customHeight="1">
-      <x:c r="A71" s="13" t="s">
+      <x:c r="A71" s="14" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="B71" s="6">
-        <x:v>423258</x:v>
+        <x:v>385179</x:v>
       </x:c>
     </x:row>
     <x:row r="72" ht="13" customHeight="1">
-      <x:c r="A72" s="14" t="s">
+      <x:c r="A72" s="13" t="s">
         <x:v>72</x:v>
       </x:c>
       <x:c r="B72" s="8">
-        <x:v>312188</x:v>
+        <x:v>270016</x:v>
       </x:c>
     </x:row>
     <x:row r="73" ht="13" customHeight="1">
-      <x:c r="A73" s="13" t="s">
+      <x:c r="A73" s="14" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="B73" s="6">
-        <x:v>576272</x:v>
+        <x:v>549077</x:v>
       </x:c>
     </x:row>
     <x:row r="74" ht="13" customHeight="1">
-      <x:c r="A74" s="14" t="s">
+      <x:c r="A74" s="13" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="B74" s="8">
-        <x:v>614218</x:v>
+        <x:v>570753</x:v>
       </x:c>
     </x:row>
     <x:row r="75" ht="13" customHeight="1">
-      <x:c r="A75" s="15" t="s">
+      <x:c r="A75" s="14" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="B75" s="16">
-        <x:v>17384844</x:v>
+      <x:c r="B75" s="6">
+        <x:v>578121</x:v>
       </x:c>
     </x:row>
     <x:row r="76" ht="13" customHeight="1">
-      <x:c r="A76" s="14" t="s">
+      <x:c r="A76" s="13" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="B76" s="8">
-        <x:v>625998</x:v>
+        <x:v>615427</x:v>
       </x:c>
     </x:row>
     <x:row r="77" ht="13" customHeight="1">
-      <x:c r="A77" s="13" t="s">
+      <x:c r="A77" s="11" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="B77" s="6">
-        <x:v>642750</x:v>
+      <x:c r="B77" s="12">
+        <x:v>14758133</x:v>
       </x:c>
     </x:row>
     <x:row r="78" ht="13" customHeight="1">
-      <x:c r="A78" s="14" t="s">
+      <x:c r="A78" s="13" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="B78" s="8">
-        <x:v>676502</x:v>
+        <x:v>651740</x:v>
       </x:c>
     </x:row>
     <x:row r="79" ht="13" customHeight="1">
-      <x:c r="A79" s="13" t="s">
+      <x:c r="A79" s="14" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="B79" s="6">
-        <x:v>444625</x:v>
+        <x:v>426861</x:v>
       </x:c>
     </x:row>
     <x:row r="80" ht="13" customHeight="1">
-      <x:c r="A80" s="14" t="s">
+      <x:c r="A80" s="13" t="s">
         <x:v>80</x:v>
       </x:c>
       <x:c r="B80" s="8">
-        <x:v>319363</x:v>
+        <x:v>307671</x:v>
       </x:c>
     </x:row>
     <x:row r="81" ht="13" customHeight="1">
-      <x:c r="A81" s="13" t="s">
+      <x:c r="A81" s="14" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="B81" s="6">
-        <x:v>584107</x:v>
+        <x:v>554793</x:v>
       </x:c>
     </x:row>
     <x:row r="82" ht="13" customHeight="1">
-      <x:c r="A82" s="14" t="s">
+      <x:c r="A82" s="13" t="s">
         <x:v>82</x:v>
       </x:c>
       <x:c r="B82" s="8">
-        <x:v>616019</x:v>
+        <x:v>579952</x:v>
       </x:c>
     </x:row>
     <x:row r="83" ht="13" customHeight="1">
-      <x:c r="A83" s="13" t="s">
+      <x:c r="A83" s="14" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="B83" s="6">
-        <x:v>659290</x:v>
+        <x:v>589258</x:v>
       </x:c>
     </x:row>
     <x:row r="84" ht="13" customHeight="1">
-      <x:c r="A84" s="14" t="s">
+      <x:c r="A84" s="13" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="B84" s="8">
-        <x:v>641458</x:v>
+        <x:v>601299</x:v>
       </x:c>
     </x:row>
     <x:row r="85" ht="13" customHeight="1">
-      <x:c r="A85" s="13" t="s">
+      <x:c r="A85" s="14" t="s">
         <x:v>85</x:v>
       </x:c>
       <x:c r="B85" s="6">
-        <x:v>666923</x:v>
+        <x:v>636649</x:v>
       </x:c>
     </x:row>
     <x:row r="86" ht="13" customHeight="1">
-      <x:c r="A86" s="14" t="s">
+      <x:c r="A86" s="13" t="s">
         <x:v>86</x:v>
       </x:c>
       <x:c r="B86" s="8">
-        <x:v>428927</x:v>
+        <x:v>422814</x:v>
       </x:c>
     </x:row>
     <x:row r="87" ht="13" customHeight="1">
-      <x:c r="A87" s="13" t="s">
+      <x:c r="A87" s="14" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="B87" s="6">
-        <x:v>304788</x:v>
+        <x:v>309021</x:v>
       </x:c>
     </x:row>
     <x:row r="88" ht="13" customHeight="1">
-      <x:c r="A88" s="14" t="s">
+      <x:c r="A88" s="13" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="B88" s="8">
-        <x:v>610601</x:v>
+        <x:v>552617</x:v>
       </x:c>
     </x:row>
     <x:row r="89" ht="13" customHeight="1">
-      <x:c r="A89" s="13" t="s">
+      <x:c r="A89" s="14" t="s">
         <x:v>89</x:v>
       </x:c>
       <x:c r="B89" s="6">
-        <x:v>618273</x:v>
+        <x:v>578328</x:v>
       </x:c>
     </x:row>
     <x:row r="90" ht="13" customHeight="1">
-      <x:c r="A90" s="14" t="s">
+      <x:c r="A90" s="13" t="s">
         <x:v>90</x:v>
       </x:c>
       <x:c r="B90" s="8">
-        <x:v>613283</x:v>
+        <x:v>577472</x:v>
       </x:c>
     </x:row>
     <x:row r="91" ht="13" customHeight="1">
-      <x:c r="A91" s="13" t="s">
+      <x:c r="A91" s="14" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="B91" s="6">
-        <x:v>620210</x:v>
+        <x:v>589742</x:v>
       </x:c>
     </x:row>
     <x:row r="92" ht="13" customHeight="1">
-      <x:c r="A92" s="14" t="s">
+      <x:c r="A92" s="13" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="B92" s="8">
-        <x:v>663152</x:v>
+        <x:v>629284</x:v>
       </x:c>
     </x:row>
     <x:row r="93" ht="13" customHeight="1">
-      <x:c r="A93" s="13" t="s">
+      <x:c r="A93" s="14" t="s">
         <x:v>93</x:v>
       </x:c>
       <x:c r="B93" s="6">
-        <x:v>422774</x:v>
+        <x:v>423485</x:v>
       </x:c>
     </x:row>
     <x:row r="94" ht="13" customHeight="1">
-      <x:c r="A94" s="14" t="s">
+      <x:c r="A94" s="13" t="s">
         <x:v>94</x:v>
       </x:c>
       <x:c r="B94" s="8">
-        <x:v>306103</x:v>
+        <x:v>298404</x:v>
       </x:c>
     </x:row>
     <x:row r="95" ht="13" customHeight="1">
-      <x:c r="A95" s="13" t="s">
+      <x:c r="A95" s="14" t="s">
         <x:v>95</x:v>
       </x:c>
       <x:c r="B95" s="6">
-        <x:v>573988</x:v>
+        <x:v>543131</x:v>
       </x:c>
     </x:row>
     <x:row r="96" ht="13" customHeight="1">
-      <x:c r="A96" s="14" t="s">
+      <x:c r="A96" s="13" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="B96" s="8">
-        <x:v>602166</x:v>
+        <x:v>574329</x:v>
       </x:c>
     </x:row>
     <x:row r="97" ht="13" customHeight="1">
-      <x:c r="A97" s="13" t="s">
+      <x:c r="A97" s="14" t="s">
         <x:v>97</x:v>
       </x:c>
       <x:c r="B97" s="6">
-        <x:v>612017</x:v>
+        <x:v>577066</x:v>
       </x:c>
     </x:row>
     <x:row r="98" ht="13" customHeight="1">
-      <x:c r="A98" s="14" t="s">
+      <x:c r="A98" s="13" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="B98" s="8">
-        <x:v>635905</x:v>
+        <x:v>598563</x:v>
       </x:c>
     </x:row>
     <x:row r="99" ht="13" customHeight="1">
-      <x:c r="A99" s="13" t="s">
+      <x:c r="A99" s="14" t="s">
         <x:v>99</x:v>
       </x:c>
       <x:c r="B99" s="6">
-        <x:v>672535</x:v>
+        <x:v>617406</x:v>
       </x:c>
     </x:row>
     <x:row r="100" ht="13" customHeight="1">
-      <x:c r="A100" s="14" t="s">
+      <x:c r="A100" s="13" t="s">
         <x:v>100</x:v>
       </x:c>
       <x:c r="B100" s="8">
-        <x:v>429263</x:v>
+        <x:v>403480</x:v>
       </x:c>
     </x:row>
     <x:row r="101" ht="13" customHeight="1">
-      <x:c r="A101" s="13" t="s">
+      <x:c r="A101" s="14" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="B101" s="6">
-        <x:v>286972</x:v>
+        <x:v>271450</x:v>
       </x:c>
     </x:row>
     <x:row r="102" ht="13" customHeight="1">
-      <x:c r="A102" s="14" t="s">
+      <x:c r="A102" s="13" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="B102" s="8">
-        <x:v>566900</x:v>
+        <x:v>403112</x:v>
       </x:c>
     </x:row>
     <x:row r="103" ht="13" customHeight="1">
-      <x:c r="A103" s="13" t="s">
+      <x:c r="A103" s="14" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="B103" s="6">
-        <x:v>613540</x:v>
+        <x:v>419879</x:v>
       </x:c>
     </x:row>
     <x:row r="104" ht="13" customHeight="1">
-      <x:c r="A104" s="14" t="s">
+      <x:c r="A104" s="13" t="s">
         <x:v>104</x:v>
       </x:c>
       <x:c r="B104" s="8">
-        <x:v>605657</x:v>
+        <x:v>448048</x:v>
       </x:c>
     </x:row>
     <x:row r="105" ht="13" customHeight="1">
-      <x:c r="A105" s="13" t="s">
+      <x:c r="A105" s="14" t="s">
         <x:v>105</x:v>
       </x:c>
       <x:c r="B105" s="6">
-        <x:v>645248</x:v>
+        <x:v>276296</x:v>
       </x:c>
     </x:row>
     <x:row r="106" ht="13" customHeight="1">
-      <x:c r="A106" s="14" t="s">
+      <x:c r="A106" s="13" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="B106" s="8">
-        <x:v>675507</x:v>
+        <x:v>279953</x:v>
       </x:c>
     </x:row>
     <x:row r="107" ht="13" customHeight="1">
-      <x:c r="A107" s="15" t="s">
+      <x:c r="A107" s="14" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="B107" s="16">
-        <x:v>14553705</x:v>
+      <x:c r="B107" s="6">
+        <x:v>352236</x:v>
       </x:c>
     </x:row>
     <x:row r="108" ht="13" customHeight="1">
-      <x:c r="A108" s="14" t="s">
+      <x:c r="A108" s="13" t="s">
         <x:v>108</x:v>
       </x:c>
       <x:c r="B108" s="8">
-        <x:v>439020</x:v>
+        <x:v>263794</x:v>
       </x:c>
     </x:row>
     <x:row r="109" ht="13" customHeight="1">
-      <x:c r="A109" s="13" t="s">
+      <x:c r="A109" s="11" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="B109" s="6">
-        <x:v>325803</x:v>
+      <x:c r="B109" s="12">
+        <x:v>15240930</x:v>
       </x:c>
     </x:row>
     <x:row r="110" ht="13" customHeight="1">
-      <x:c r="A110" s="14" t="s">
+      <x:c r="A110" s="13" t="s">
         <x:v>110</x:v>
       </x:c>
       <x:c r="B110" s="8">
-        <x:v>448330</x:v>
+        <x:v>241048</x:v>
       </x:c>
     </x:row>
     <x:row r="111" ht="13" customHeight="1">
-      <x:c r="A111" s="13" t="s">
+      <x:c r="A111" s="14" t="s">
         <x:v>111</x:v>
       </x:c>
       <x:c r="B111" s="6">
-        <x:v>450942</x:v>
+        <x:v>590449</x:v>
       </x:c>
     </x:row>
     <x:row r="112" ht="13" customHeight="1">
-      <x:c r="A112" s="14" t="s">
+      <x:c r="A112" s="13" t="s">
         <x:v>112</x:v>
       </x:c>
       <x:c r="B112" s="8">
-        <x:v>457009</x:v>
+        <x:v>572630</x:v>
       </x:c>
     </x:row>
     <x:row r="113" ht="13" customHeight="1">
-      <x:c r="A113" s="13" t="s">
+      <x:c r="A113" s="14" t="s">
         <x:v>113</x:v>
       </x:c>
       <x:c r="B113" s="6">
-        <x:v>293360</x:v>
+        <x:v>618188</x:v>
       </x:c>
     </x:row>
     <x:row r="114" ht="13" customHeight="1">
-      <x:c r="A114" s="14" t="s">
+      <x:c r="A114" s="13" t="s">
         <x:v>114</x:v>
       </x:c>
       <x:c r="B114" s="8">
-        <x:v>278115</x:v>
+        <x:v>631149</x:v>
       </x:c>
     </x:row>
     <x:row r="115" ht="13" customHeight="1">
-      <x:c r="A115" s="13" t="s">
+      <x:c r="A115" s="14" t="s">
         <x:v>115</x:v>
       </x:c>
       <x:c r="B115" s="6">
-        <x:v>361698</x:v>
+        <x:v>370187</x:v>
       </x:c>
     </x:row>
     <x:row r="116" ht="13" customHeight="1">
-      <x:c r="A116" s="14" t="s">
+      <x:c r="A116" s="13" t="s">
         <x:v>116</x:v>
       </x:c>
       <x:c r="B116" s="8">
-        <x:v>271529</x:v>
+        <x:v>285404</x:v>
       </x:c>
     </x:row>
     <x:row r="117" ht="13" customHeight="1">
-      <x:c r="A117" s="13" t="s">
+      <x:c r="A117" s="14" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="B117" s="6">
-        <x:v>249041</x:v>
+        <x:v>540864</x:v>
       </x:c>
     </x:row>
     <x:row r="118" ht="13" customHeight="1">
-      <x:c r="A118" s="14" t="s">
+      <x:c r="A118" s="13" t="s">
         <x:v>118</x:v>
       </x:c>
       <x:c r="B118" s="8">
-        <x:v>619395</x:v>
+        <x:v>560583</x:v>
       </x:c>
     </x:row>
     <x:row r="119" ht="13" customHeight="1">
-      <x:c r="A119" s="13" t="s">
+      <x:c r="A119" s="14" t="s">
         <x:v>119</x:v>
       </x:c>
       <x:c r="B119" s="6">
-        <x:v>598586</x:v>
+        <x:v>579636</x:v>
       </x:c>
     </x:row>
     <x:row r="120" ht="13" customHeight="1">
-      <x:c r="A120" s="14" t="s">
+      <x:c r="A120" s="13" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="B120" s="8">
-        <x:v>618508</x:v>
+        <x:v>605647</x:v>
       </x:c>
     </x:row>
     <x:row r="121" ht="13" customHeight="1">
-      <x:c r="A121" s="13" t="s">
+      <x:c r="A121" s="14" t="s">
         <x:v>121</x:v>
       </x:c>
       <x:c r="B121" s="6">
-        <x:v>659631</x:v>
+        <x:v>634985</x:v>
       </x:c>
     </x:row>
     <x:row r="122" ht="13" customHeight="1">
-      <x:c r="A122" s="14" t="s">
+      <x:c r="A122" s="13" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="B122" s="8">
-        <x:v>433426</x:v>
+        <x:v>428975</x:v>
       </x:c>
     </x:row>
     <x:row r="123" ht="13" customHeight="1">
-      <x:c r="A123" s="13" t="s">
+      <x:c r="A123" s="14" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="B123" s="6">
-        <x:v>320898</x:v>
+        <x:v>302942</x:v>
       </x:c>
     </x:row>
     <x:row r="124" ht="13" customHeight="1">
-      <x:c r="A124" s="14" t="s">
+      <x:c r="A124" s="13" t="s">
         <x:v>124</x:v>
       </x:c>
       <x:c r="B124" s="8">
-        <x:v>574259</x:v>
+        <x:v>536939</x:v>
       </x:c>
     </x:row>
     <x:row r="125" ht="13" customHeight="1">
-      <x:c r="A125" s="13" t="s">
+      <x:c r="A125" s="14" t="s">
         <x:v>125</x:v>
       </x:c>
       <x:c r="B125" s="6">
-        <x:v>598663</x:v>
+        <x:v>569168</x:v>
       </x:c>
     </x:row>
     <x:row r="126" ht="13" customHeight="1">
-      <x:c r="A126" s="14" t="s">
+      <x:c r="A126" s="13" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="B126" s="8">
-        <x:v>594817</x:v>
+        <x:v>572837</x:v>
       </x:c>
     </x:row>
     <x:row r="127" ht="13" customHeight="1">
-      <x:c r="A127" s="13" t="s">
+      <x:c r="A127" s="14" t="s">
         <x:v>127</x:v>
       </x:c>
       <x:c r="B127" s="6">
-        <x:v>618568</x:v>
+        <x:v>583340</x:v>
       </x:c>
     </x:row>
     <x:row r="128" ht="13" customHeight="1">
-      <x:c r="A128" s="14" t="s">
+      <x:c r="A128" s="13" t="s">
         <x:v>128</x:v>
       </x:c>
       <x:c r="B128" s="8">
-        <x:v>654844</x:v>
+        <x:v>646005</x:v>
       </x:c>
     </x:row>
     <x:row r="129" ht="13" customHeight="1">
-      <x:c r="A129" s="13" t="s">
+      <x:c r="A129" s="14" t="s">
         <x:v>129</x:v>
       </x:c>
       <x:c r="B129" s="6">
-        <x:v>458758</x:v>
+        <x:v>431170</x:v>
       </x:c>
     </x:row>
     <x:row r="130" ht="13" customHeight="1">
-      <x:c r="A130" s="14" t="s">
+      <x:c r="A130" s="13" t="s">
         <x:v>130</x:v>
       </x:c>
       <x:c r="B130" s="8">
-        <x:v>296069</x:v>
+        <x:v>312178</x:v>
       </x:c>
     </x:row>
     <x:row r="131" ht="13" customHeight="1">
-      <x:c r="A131" s="13" t="s">
+      <x:c r="A131" s="14" t="s">
         <x:v>131</x:v>
       </x:c>
       <x:c r="B131" s="6">
-        <x:v>583977</x:v>
+        <x:v>529108</x:v>
       </x:c>
     </x:row>
     <x:row r="132" ht="13" customHeight="1">
-      <x:c r="A132" s="14" t="s">
+      <x:c r="A132" s="13" t="s">
         <x:v>132</x:v>
       </x:c>
       <x:c r="B132" s="8">
-        <x:v>608442</x:v>
+        <x:v>565520</x:v>
       </x:c>
     </x:row>
     <x:row r="133" ht="13" customHeight="1">
-      <x:c r="A133" s="13" t="s">
+      <x:c r="A133" s="14" t="s">
         <x:v>133</x:v>
       </x:c>
       <x:c r="B133" s="6">
-        <x:v>624082</x:v>
+        <x:v>567051</x:v>
       </x:c>
     </x:row>
     <x:row r="134" ht="13" customHeight="1">
-      <x:c r="A134" s="14" t="s">
+      <x:c r="A134" s="13" t="s">
         <x:v>134</x:v>
       </x:c>
       <x:c r="B134" s="8">
-        <x:v>626737</x:v>
+        <x:v>581642</x:v>
       </x:c>
     </x:row>
     <x:row r="135" ht="13" customHeight="1">
-      <x:c r="A135" s="13" t="s">
+      <x:c r="A135" s="14" t="s">
         <x:v>135</x:v>
       </x:c>
       <x:c r="B135" s="6">
-        <x:v>680399</x:v>
+        <x:v>596905</x:v>
       </x:c>
     </x:row>
     <x:row r="136" ht="13" customHeight="1">
-      <x:c r="A136" s="14" t="s">
+      <x:c r="A136" s="13" t="s">
         <x:v>136</x:v>
       </x:c>
       <x:c r="B136" s="8">
-        <x:v>466487</x:v>
+        <x:v>401705</x:v>
       </x:c>
     </x:row>
     <x:row r="137" ht="13" customHeight="1">
-      <x:c r="A137" s="13" t="s">
+      <x:c r="A137" s="14" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="B137" s="6">
-        <x:v>342312</x:v>
+        <x:v>306086</x:v>
       </x:c>
     </x:row>
     <x:row r="138" ht="13" customHeight="1">
-      <x:c r="A138" s="11" t="s">
+      <x:c r="A138" s="13" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="B138" s="12">
-        <x:v>15615425</x:v>
+      <x:c r="B138" s="8">
+        <x:v>516124</x:v>
       </x:c>
     </x:row>
     <x:row r="139" ht="13" customHeight="1">
-      <x:c r="A139" s="13" t="s">
+      <x:c r="A139" s="14" t="s">
         <x:v>139</x:v>
       </x:c>
       <x:c r="B139" s="6">
-        <x:v>540101</x:v>
+        <x:v>562465</x:v>
       </x:c>
     </x:row>
     <x:row r="140" ht="13" customHeight="1">
-      <x:c r="A140" s="14" t="s">
+      <x:c r="A140" s="15" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="B140" s="8">
-        <x:v>597255</x:v>
+      <x:c r="B140" s="16">
+        <x:v>14839425</x:v>
       </x:c>
     </x:row>
     <x:row r="141" ht="13" customHeight="1">
-      <x:c r="A141" s="13" t="s">
+      <x:c r="A141" s="14" t="s">
         <x:v>141</x:v>
       </x:c>
       <x:c r="B141" s="6">
-        <x:v>598150</x:v>
+        <x:v>559190</x:v>
       </x:c>
     </x:row>
     <x:row r="142" ht="13" customHeight="1">
-      <x:c r="A142" s="14" t="s">
+      <x:c r="A142" s="13" t="s">
         <x:v>142</x:v>
       </x:c>
       <x:c r="B142" s="8">
-        <x:v>670007</x:v>
+        <x:v>584818</x:v>
       </x:c>
     </x:row>
     <x:row r="143" ht="13" customHeight="1">
-      <x:c r="A143" s="13" t="s">
+      <x:c r="A143" s="14" t="s">
         <x:v>143</x:v>
       </x:c>
       <x:c r="B143" s="6">
-        <x:v>352472</x:v>
+        <x:v>616808</x:v>
       </x:c>
     </x:row>
     <x:row r="144" ht="13" customHeight="1">
-      <x:c r="A144" s="14" t="s">
+      <x:c r="A144" s="13" t="s">
         <x:v>144</x:v>
       </x:c>
       <x:c r="B144" s="8">
-        <x:v>405984</x:v>
+        <x:v>422938</x:v>
       </x:c>
     </x:row>
     <x:row r="145" ht="13" customHeight="1">
-      <x:c r="A145" s="13" t="s">
+      <x:c r="A145" s="14" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="B145" s="6">
-        <x:v>311126</x:v>
+        <x:v>328309</x:v>
       </x:c>
     </x:row>
     <x:row r="146" ht="13" customHeight="1">
-      <x:c r="A146" s="14" t="s">
+      <x:c r="A146" s="13" t="s">
         <x:v>146</x:v>
       </x:c>
       <x:c r="B146" s="8">
-        <x:v>561861</x:v>
+        <x:v>528320</x:v>
       </x:c>
     </x:row>
     <x:row r="147" ht="13" customHeight="1">
-      <x:c r="A147" s="13" t="s">
+      <x:c r="A147" s="14" t="s">
         <x:v>147</x:v>
       </x:c>
       <x:c r="B147" s="6">
-        <x:v>592372</x:v>
+        <x:v>554395</x:v>
       </x:c>
     </x:row>
     <x:row r="148" ht="13" customHeight="1">
-      <x:c r="A148" s="14" t="s">
+      <x:c r="A148" s="13" t="s">
         <x:v>148</x:v>
       </x:c>
       <x:c r="B148" s="8">
-        <x:v>601702</x:v>
+        <x:v>593907</x:v>
       </x:c>
     </x:row>
     <x:row r="149" ht="13" customHeight="1">
-      <x:c r="A149" s="13" t="s">
+      <x:c r="A149" s="14" t="s">
         <x:v>149</x:v>
       </x:c>
       <x:c r="B149" s="6">
-        <x:v>607365</x:v>
+        <x:v>310930</x:v>
       </x:c>
     </x:row>
     <x:row r="150" ht="13" customHeight="1">
-      <x:c r="A150" s="14" t="s">
+      <x:c r="A150" s="13" t="s">
         <x:v>150</x:v>
       </x:c>
       <x:c r="B150" s="8">
-        <x:v>650970</x:v>
+        <x:v>441188</x:v>
       </x:c>
     </x:row>
     <x:row r="151" ht="13" customHeight="1">
-      <x:c r="A151" s="13" t="s">
+      <x:c r="A151" s="14" t="s">
         <x:v>151</x:v>
       </x:c>
       <x:c r="B151" s="6">
-        <x:v>437421</x:v>
+        <x:v>382437</x:v>
       </x:c>
     </x:row>
     <x:row r="152" ht="13" customHeight="1">
-      <x:c r="A152" s="14" t="s">
+      <x:c r="A152" s="13" t="s">
         <x:v>152</x:v>
       </x:c>
       <x:c r="B152" s="8">
-        <x:v>355523</x:v>
+        <x:v>287239</x:v>
       </x:c>
     </x:row>
     <x:row r="153" ht="13" customHeight="1">
-      <x:c r="A153" s="13" t="s">
+      <x:c r="A153" s="14" t="s">
         <x:v>153</x:v>
       </x:c>
       <x:c r="B153" s="6">
-        <x:v>548803</x:v>
+        <x:v>512481</x:v>
       </x:c>
     </x:row>
     <x:row r="154" ht="13" customHeight="1">
-      <x:c r="A154" s="14" t="s">
+      <x:c r="A154" s="13" t="s">
         <x:v>154</x:v>
       </x:c>
       <x:c r="B154" s="8">
-        <x:v>587686</x:v>
+        <x:v>532061</x:v>
       </x:c>
     </x:row>
     <x:row r="155" ht="13" customHeight="1">
-      <x:c r="A155" s="13" t="s">
+      <x:c r="A155" s="14" t="s">
         <x:v>155</x:v>
       </x:c>
       <x:c r="B155" s="6">
-        <x:v>650061</x:v>
+        <x:v>543634</x:v>
       </x:c>
     </x:row>
     <x:row r="156" ht="13" customHeight="1">
-      <x:c r="A156" s="14" t="s">
+      <x:c r="A156" s="13" t="s">
         <x:v>156</x:v>
       </x:c>
       <x:c r="B156" s="8">
-        <x:v>324316</x:v>
+        <x:v>553401</x:v>
       </x:c>
     </x:row>
     <x:row r="157" ht="13" customHeight="1">
-      <x:c r="A157" s="13" t="s">
+      <x:c r="A157" s="14" t="s">
         <x:v>157</x:v>
       </x:c>
       <x:c r="B157" s="6">
-        <x:v>451568</x:v>
+        <x:v>589075</x:v>
       </x:c>
     </x:row>
     <x:row r="158" ht="13" customHeight="1">
-      <x:c r="A158" s="14" t="s">
+      <x:c r="A158" s="13" t="s">
         <x:v>158</x:v>
       </x:c>
       <x:c r="B158" s="8">
-        <x:v>396349</x:v>
+        <x:v>374354</x:v>
       </x:c>
     </x:row>
     <x:row r="159" ht="13" customHeight="1">
-      <x:c r="A159" s="13" t="s">
+      <x:c r="A159" s="14" t="s">
         <x:v>159</x:v>
       </x:c>
       <x:c r="B159" s="6">
-        <x:v>300919</x:v>
+        <x:v>282979</x:v>
       </x:c>
     </x:row>
     <x:row r="160" ht="13" customHeight="1">
-      <x:c r="A160" s="14" t="s">
+      <x:c r="A160" s="13" t="s">
         <x:v>160</x:v>
       </x:c>
       <x:c r="B160" s="8">
-        <x:v>543548</x:v>
+        <x:v>303369</x:v>
       </x:c>
     </x:row>
     <x:row r="161" ht="13" customHeight="1">
-      <x:c r="A161" s="13" t="s">
+      <x:c r="A161" s="14" t="s">
         <x:v>161</x:v>
       </x:c>
       <x:c r="B161" s="6">
-        <x:v>584968</x:v>
+        <x:v>525580</x:v>
       </x:c>
     </x:row>
     <x:row r="162" ht="13" customHeight="1">
-      <x:c r="A162" s="14" t="s">
+      <x:c r="A162" s="13" t="s">
         <x:v>162</x:v>
       </x:c>
       <x:c r="B162" s="8">
-        <x:v>568872</x:v>
+        <x:v>532078</x:v>
       </x:c>
     </x:row>
     <x:row r="163" ht="13" customHeight="1">
-      <x:c r="A163" s="13" t="s">
+      <x:c r="A163" s="14" t="s">
         <x:v>163</x:v>
       </x:c>
       <x:c r="B163" s="6">
-        <x:v>583413</x:v>
+        <x:v>546175</x:v>
       </x:c>
     </x:row>
     <x:row r="164" ht="13" customHeight="1">
-      <x:c r="A164" s="14" t="s">
+      <x:c r="A164" s="13" t="s">
         <x:v>164</x:v>
       </x:c>
       <x:c r="B164" s="8">
-        <x:v>614444</x:v>
+        <x:v>568984</x:v>
       </x:c>
     </x:row>
     <x:row r="165" ht="13" customHeight="1">
-      <x:c r="A165" s="13" t="s">
+      <x:c r="A165" s="14" t="s">
         <x:v>165</x:v>
       </x:c>
       <x:c r="B165" s="6">
-        <x:v>411425</x:v>
+        <x:v>389217</x:v>
       </x:c>
     </x:row>
     <x:row r="166" ht="13" customHeight="1">
-      <x:c r="A166" s="14" t="s">
+      <x:c r="A166" s="13" t="s">
         <x:v>166</x:v>
       </x:c>
       <x:c r="B166" s="8">
-        <x:v>295958</x:v>
+        <x:v>283711</x:v>
       </x:c>
     </x:row>
     <x:row r="167" ht="13" customHeight="1">
-      <x:c r="A167" s="13" t="s">
+      <x:c r="A167" s="14" t="s">
         <x:v>167</x:v>
       </x:c>
       <x:c r="B167" s="6">
-        <x:v>318462</x:v>
+        <x:v>486325</x:v>
       </x:c>
     </x:row>
     <x:row r="168" ht="13" customHeight="1">
-      <x:c r="A168" s="14" t="s">
+      <x:c r="A168" s="13" t="s">
         <x:v>168</x:v>
       </x:c>
       <x:c r="B168" s="8">
-        <x:v>560719</x:v>
+        <x:v>518994</x:v>
       </x:c>
     </x:row>
     <x:row r="169" ht="13" customHeight="1">
-      <x:c r="A169" s="13" t="s">
+      <x:c r="A169" s="14" t="s">
         <x:v>169</x:v>
       </x:c>
       <x:c r="B169" s="6">
-        <x:v>591605</x:v>
+        <x:v>522424</x:v>
       </x:c>
     </x:row>
     <x:row r="170" ht="13" customHeight="1">
-      <x:c r="A170" s="11" t="s">
+      <x:c r="A170" s="13" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="B170" s="12">
-        <x:v>15216070</x:v>
+      <x:c r="B170" s="8">
+        <x:v>555229</x:v>
       </x:c>
     </x:row>
     <x:row r="171" ht="13" customHeight="1">
-      <x:c r="A171" s="13" t="s">
+      <x:c r="A171" s="14" t="s">
         <x:v>171</x:v>
       </x:c>
       <x:c r="B171" s="6">
-        <x:v>633370</x:v>
+        <x:v>608875</x:v>
       </x:c>
     </x:row>
     <x:row r="172" ht="13" customHeight="1">
-      <x:c r="A172" s="14" t="s">
+      <x:c r="A172" s="15" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="B172" s="8">
-        <x:v>657328</x:v>
+      <x:c r="B172" s="16">
+        <x:v>14073542</x:v>
       </x:c>
     </x:row>
     <x:row r="173" ht="13" customHeight="1">
-      <x:c r="A173" s="13" t="s">
+      <x:c r="A173" s="14" t="s">
         <x:v>173</x:v>
       </x:c>
       <x:c r="B173" s="6">
-        <x:v>451724</x:v>
+        <x:v>418139</x:v>
       </x:c>
     </x:row>
     <x:row r="174" ht="13" customHeight="1">
-      <x:c r="A174" s="14" t="s">
+      <x:c r="A174" s="13" t="s">
         <x:v>174</x:v>
       </x:c>
       <x:c r="B174" s="8">
-        <x:v>357558</x:v>
+        <x:v>295186</x:v>
       </x:c>
     </x:row>
     <x:row r="175" ht="13" customHeight="1">
-      <x:c r="A175" s="13" t="s">
+      <x:c r="A175" s="14" t="s">
         <x:v>175</x:v>
       </x:c>
       <x:c r="B175" s="6">
-        <x:v>326279</x:v>
+        <x:v>498098</x:v>
       </x:c>
     </x:row>
     <x:row r="176" ht="13" customHeight="1">
-      <x:c r="A176" s="14" t="s">
+      <x:c r="A176" s="13" t="s">
         <x:v>176</x:v>
       </x:c>
       <x:c r="B176" s="8">
-        <x:v>567393</x:v>
+        <x:v>548337</x:v>
       </x:c>
     </x:row>
     <x:row r="177" ht="13" customHeight="1">
-      <x:c r="A177" s="13" t="s">
+      <x:c r="A177" s="14" t="s">
         <x:v>177</x:v>
       </x:c>
       <x:c r="B177" s="6">
-        <x:v>575088</x:v>
+        <x:v>355397</x:v>
       </x:c>
     </x:row>
     <x:row r="178" ht="13" customHeight="1">
-      <x:c r="A178" s="14" t="s">
+      <x:c r="A178" s="13" t="s">
         <x:v>178</x:v>
       </x:c>
       <x:c r="B178" s="8">
-        <x:v>595248</x:v>
+        <x:v>544232</x:v>
       </x:c>
     </x:row>
     <x:row r="179" ht="13" customHeight="1">
-      <x:c r="A179" s="13" t="s">
+      <x:c r="A179" s="14" t="s">
         <x:v>179</x:v>
       </x:c>
       <x:c r="B179" s="6">
-        <x:v>643254</x:v>
+        <x:v>584703</x:v>
       </x:c>
     </x:row>
     <x:row r="180" ht="13" customHeight="1">
-      <x:c r="A180" s="14" t="s">
+      <x:c r="A180" s="13" t="s">
         <x:v>180</x:v>
       </x:c>
       <x:c r="B180" s="8">
-        <x:v>457674</x:v>
+        <x:v>403853</x:v>
       </x:c>
     </x:row>
     <x:row r="181" ht="13" customHeight="1">
-      <x:c r="A181" s="13" t="s">
+      <x:c r="A181" s="14" t="s">
         <x:v>181</x:v>
       </x:c>
       <x:c r="B181" s="6">
-        <x:v>315669</x:v>
+        <x:v>288010</x:v>
       </x:c>
     </x:row>
     <x:row r="182" ht="13" customHeight="1">
-      <x:c r="A182" s="14" t="s">
+      <x:c r="A182" s="13" t="s">
         <x:v>182</x:v>
       </x:c>
       <x:c r="B182" s="8">
-        <x:v>522395</x:v>
+        <x:v>500244</x:v>
       </x:c>
     </x:row>
     <x:row r="183" ht="13" customHeight="1">
-      <x:c r="A183" s="13" t="s">
+      <x:c r="A183" s="14" t="s">
         <x:v>183</x:v>
       </x:c>
       <x:c r="B183" s="6">
-        <x:v>555722</x:v>
+        <x:v>543925</x:v>
       </x:c>
     </x:row>
     <x:row r="184" ht="13" customHeight="1">
-      <x:c r="A184" s="14" t="s">
+      <x:c r="A184" s="13" t="s">
         <x:v>184</x:v>
       </x:c>
       <x:c r="B184" s="8">
-        <x:v>563735</x:v>
+        <x:v>537056</x:v>
       </x:c>
     </x:row>
     <x:row r="185" ht="13" customHeight="1">
-      <x:c r="A185" s="13" t="s">
+      <x:c r="A185" s="14" t="s">
         <x:v>185</x:v>
       </x:c>
       <x:c r="B185" s="6">
-        <x:v>572978</x:v>
+        <x:v>540736</x:v>
       </x:c>
     </x:row>
     <x:row r="186" ht="13" customHeight="1">
-      <x:c r="A186" s="14" t="s">
+      <x:c r="A186" s="13" t="s">
         <x:v>186</x:v>
       </x:c>
       <x:c r="B186" s="8">
-        <x:v>633769</x:v>
+        <x:v>591926</x:v>
       </x:c>
     </x:row>
     <x:row r="187" ht="13" customHeight="1">
-      <x:c r="A187" s="13" t="s">
+      <x:c r="A187" s="14" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="B187" s="6">
-        <x:v>427187</x:v>
+        <x:v>368742</x:v>
       </x:c>
     </x:row>
     <x:row r="188" ht="13" customHeight="1">
-      <x:c r="A188" s="14" t="s">
+      <x:c r="A188" s="13" t="s">
         <x:v>188</x:v>
       </x:c>
       <x:c r="B188" s="8">
-        <x:v>303733</x:v>
+        <x:v>322797</x:v>
       </x:c>
     </x:row>
     <x:row r="189" ht="13" customHeight="1">
-      <x:c r="A189" s="13" t="s">
+      <x:c r="A189" s="14" t="s">
         <x:v>189</x:v>
       </x:c>
       <x:c r="B189" s="6">
-        <x:v>543557</x:v>
+        <x:v>486541</x:v>
       </x:c>
     </x:row>
     <x:row r="190" ht="13" customHeight="1">
-      <x:c r="A190" s="14" t="s">
+      <x:c r="A190" s="13" t="s">
         <x:v>190</x:v>
       </x:c>
       <x:c r="B190" s="8">
-        <x:v>574416</x:v>
+        <x:v>517465</x:v>
       </x:c>
     </x:row>
     <x:row r="191" ht="13" customHeight="1">
-      <x:c r="A191" s="13" t="s">
+      <x:c r="A191" s="14" t="s">
         <x:v>191</x:v>
       </x:c>
       <x:c r="B191" s="6">
-        <x:v>584280</x:v>
+        <x:v>524958</x:v>
       </x:c>
     </x:row>
     <x:row r="192" ht="13" customHeight="1">
-      <x:c r="A192" s="14" t="s">
+      <x:c r="A192" s="13" t="s">
         <x:v>192</x:v>
       </x:c>
       <x:c r="B192" s="8">
-        <x:v>590037</x:v>
+        <x:v>564078</x:v>
       </x:c>
     </x:row>
     <x:row r="193" ht="13" customHeight="1">
-      <x:c r="A193" s="13" t="s">
+      <x:c r="A193" s="14" t="s">
         <x:v>193</x:v>
       </x:c>
       <x:c r="B193" s="6">
-        <x:v>583094</x:v>
+        <x:v>606715</x:v>
       </x:c>
     </x:row>
     <x:row r="194" ht="13" customHeight="1">
-      <x:c r="A194" s="14" t="s">
+      <x:c r="A194" s="13" t="s">
         <x:v>194</x:v>
       </x:c>
       <x:c r="B194" s="8">
-        <x:v>397952</x:v>
+        <x:v>415768</x:v>
       </x:c>
     </x:row>
     <x:row r="195" ht="13" customHeight="1">
-      <x:c r="A195" s="13" t="s">
+      <x:c r="A195" s="14" t="s">
         <x:v>195</x:v>
       </x:c>
       <x:c r="B195" s="6">
-        <x:v>295968</x:v>
+        <x:v>335997</x:v>
       </x:c>
     </x:row>
     <x:row r="196" ht="13" customHeight="1">
-      <x:c r="A196" s="14" t="s">
+      <x:c r="A196" s="13" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="B196" s="8">
-        <x:v>447851</x:v>
+        <x:v>497246</x:v>
       </x:c>
     </x:row>
     <x:row r="197" ht="13" customHeight="1">
-      <x:c r="A197" s="13" t="s">
+      <x:c r="A197" s="14" t="s">
         <x:v>197</x:v>
       </x:c>
       <x:c r="B197" s="6">
-        <x:v>519762</x:v>
+        <x:v>546058</x:v>
       </x:c>
     </x:row>
     <x:row r="198" ht="13" customHeight="1">
-      <x:c r="A198" s="14" t="s">
+      <x:c r="A198" s="13" t="s">
         <x:v>198</x:v>
       </x:c>
       <x:c r="B198" s="8">
-        <x:v>496146</x:v>
+        <x:v>530715</x:v>
       </x:c>
     </x:row>
     <x:row r="199" ht="13" customHeight="1">
-      <x:c r="A199" s="13" t="s">
+      <x:c r="A199" s="14" t="s">
         <x:v>199</x:v>
       </x:c>
       <x:c r="B199" s="6">
-        <x:v>484346</x:v>
+        <x:v>530808</x:v>
       </x:c>
     </x:row>
     <x:row r="200" ht="13" customHeight="1">
-      <x:c r="A200" s="14" t="s">
+      <x:c r="A200" s="13" t="s">
         <x:v>200</x:v>
       </x:c>
       <x:c r="B200" s="8">
-        <x:v>538557</x:v>
+        <x:v>538305</x:v>
       </x:c>
     </x:row>
     <x:row r="201" ht="13" customHeight="1">
-      <x:c r="A201" s="15" t="s">
+      <x:c r="A201" s="14" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="B201" s="16">
-        <x:v>11645568</x:v>
+      <x:c r="B201" s="6">
+        <x:v>391099</x:v>
       </x:c>
     </x:row>
     <x:row r="202" ht="13" customHeight="1">
-      <x:c r="A202" s="14" t="s">
+      <x:c r="A202" s="13" t="s">
         <x:v>202</x:v>
       </x:c>
       <x:c r="B202" s="8">
-        <x:v>393347</x:v>
+        <x:v>246408</x:v>
       </x:c>
     </x:row>
     <x:row r="203" ht="13" customHeight="1">
-      <x:c r="A203" s="13" t="s">
+      <x:c r="A203" s="11" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="B203" s="6">
-        <x:v>302647</x:v>
+      <x:c r="B203" s="12">
+        <x:v>10465980</x:v>
       </x:c>
     </x:row>
     <x:row r="204" ht="13" customHeight="1">
-      <x:c r="A204" s="14" t="s">
+      <x:c r="A204" s="13" t="s">
         <x:v>204</x:v>
       </x:c>
       <x:c r="B204" s="8">
-        <x:v>453231</x:v>
+        <x:v>409564</x:v>
       </x:c>
     </x:row>
     <x:row r="205" ht="13" customHeight="1">
-      <x:c r="A205" s="13" t="s">
+      <x:c r="A205" s="14" t="s">
         <x:v>205</x:v>
       </x:c>
       <x:c r="B205" s="6">
-        <x:v>468952</x:v>
+        <x:v>426367</x:v>
       </x:c>
     </x:row>
     <x:row r="206" ht="13" customHeight="1">
-      <x:c r="A206" s="14" t="s">
+      <x:c r="A206" s="13" t="s">
         <x:v>206</x:v>
       </x:c>
       <x:c r="B206" s="8">
-        <x:v>476553</x:v>
+        <x:v>432434</x:v>
       </x:c>
     </x:row>
     <x:row r="207" ht="13" customHeight="1">
-      <x:c r="A207" s="13" t="s">
+      <x:c r="A207" s="14" t="s">
         <x:v>207</x:v>
       </x:c>
       <x:c r="B207" s="6">
-        <x:v>493090</x:v>
+        <x:v>423631</x:v>
       </x:c>
     </x:row>
     <x:row r="208" ht="13" customHeight="1">
-      <x:c r="A208" s="14" t="s">
+      <x:c r="A208" s="13" t="s">
         <x:v>208</x:v>
       </x:c>
       <x:c r="B208" s="8">
-        <x:v>483829</x:v>
+        <x:v>447861</x:v>
       </x:c>
     </x:row>
     <x:row r="209" ht="13" customHeight="1">
-      <x:c r="A209" s="13" t="s">
+      <x:c r="A209" s="14" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="B209" s="6">
-        <x:v>379068</x:v>
+        <x:v>354993</x:v>
       </x:c>
     </x:row>
     <x:row r="210" ht="13" customHeight="1">
-      <x:c r="A210" s="14" t="s">
+      <x:c r="A210" s="13" t="s">
         <x:v>210</x:v>
       </x:c>
       <x:c r="B210" s="8">
-        <x:v>289301</x:v>
+        <x:v>265643</x:v>
       </x:c>
     </x:row>
     <x:row r="211" ht="13" customHeight="1">
-      <x:c r="A211" s="13" t="s">
+      <x:c r="A211" s="14" t="s">
         <x:v>211</x:v>
       </x:c>
       <x:c r="B211" s="6">
-        <x:v>361525</x:v>
+        <x:v>367054</x:v>
       </x:c>
     </x:row>
     <x:row r="212" ht="13" customHeight="1">
-      <x:c r="A212" s="14" t="s">
+      <x:c r="A212" s="13" t="s">
         <x:v>212</x:v>
       </x:c>
       <x:c r="B212" s="8">
-        <x:v>419085</x:v>
+        <x:v>385662</x:v>
       </x:c>
     </x:row>
     <x:row r="213" ht="13" customHeight="1">
-      <x:c r="A213" s="13" t="s">
+      <x:c r="A213" s="14" t="s">
         <x:v>213</x:v>
       </x:c>
       <x:c r="B213" s="6">
-        <x:v>393951</x:v>
+        <x:v>363510</x:v>
       </x:c>
     </x:row>
     <x:row r="214" ht="13" customHeight="1">
-      <x:c r="A214" s="14" t="s">
+      <x:c r="A214" s="13" t="s">
         <x:v>214</x:v>
       </x:c>
       <x:c r="B214" s="8">
-        <x:v>416102</x:v>
+        <x:v>381508</x:v>
       </x:c>
     </x:row>
     <x:row r="215" ht="13" customHeight="1">
-      <x:c r="A215" s="13" t="s">
+      <x:c r="A215" s="14" t="s">
         <x:v>215</x:v>
       </x:c>
       <x:c r="B215" s="6">
-        <x:v>423129</x:v>
+        <x:v>386005</x:v>
       </x:c>
     </x:row>
     <x:row r="216" ht="13" customHeight="1">
-      <x:c r="A216" s="14" t="s">
+      <x:c r="A216" s="13" t="s">
         <x:v>216</x:v>
       </x:c>
       <x:c r="B216" s="8">
-        <x:v>332889</x:v>
+        <x:v>261793</x:v>
       </x:c>
     </x:row>
     <x:row r="217" ht="13" customHeight="1">
-      <x:c r="A217" s="13" t="s">
+      <x:c r="A217" s="14" t="s">
         <x:v>217</x:v>
       </x:c>
       <x:c r="B217" s="6">
-        <x:v>250055</x:v>
+        <x:v>238867</x:v>
       </x:c>
     </x:row>
     <x:row r="218" ht="13" customHeight="1">
-      <x:c r="A218" s="14" t="s">
+      <x:c r="A218" s="13" t="s">
         <x:v>218</x:v>
       </x:c>
       <x:c r="B218" s="8">
-        <x:v>339481</x:v>
+        <x:v>312725</x:v>
       </x:c>
     </x:row>
     <x:row r="219" ht="13" customHeight="1">
-      <x:c r="A219" s="13" t="s">
+      <x:c r="A219" s="14" t="s">
         <x:v>219</x:v>
       </x:c>
       <x:c r="B219" s="6">
-        <x:v>360670</x:v>
+        <x:v>313042</x:v>
       </x:c>
     </x:row>
     <x:row r="220" ht="13" customHeight="1">
-      <x:c r="A220" s="14" t="s">
+      <x:c r="A220" s="13" t="s">
         <x:v>220</x:v>
       </x:c>
       <x:c r="B220" s="8">
-        <x:v>356298</x:v>
+        <x:v>319413</x:v>
       </x:c>
     </x:row>
     <x:row r="221" ht="13" customHeight="1">
-      <x:c r="A221" s="13" t="s">
+      <x:c r="A221" s="14" t="s">
         <x:v>221</x:v>
       </x:c>
       <x:c r="B221" s="6">
-        <x:v>382969</x:v>
+        <x:v>338702</x:v>
       </x:c>
     </x:row>
     <x:row r="222" ht="13" customHeight="1">
-      <x:c r="A222" s="14" t="s">
+      <x:c r="A222" s="13" t="s">
         <x:v>222</x:v>
       </x:c>
       <x:c r="B222" s="8">
-        <x:v>388122</x:v>
+        <x:v>344687</x:v>
       </x:c>
     </x:row>
     <x:row r="223" ht="13" customHeight="1">
-      <x:c r="A223" s="13" t="s">
+      <x:c r="A223" s="14" t="s">
         <x:v>223</x:v>
       </x:c>
       <x:c r="B223" s="6">
-        <x:v>328950</x:v>
+        <x:v>298312</x:v>
       </x:c>
     </x:row>
     <x:row r="224" ht="13" customHeight="1">
-      <x:c r="A224" s="14" t="s">
+      <x:c r="A224" s="13" t="s">
         <x:v>224</x:v>
       </x:c>
       <x:c r="B224" s="8">
-        <x:v>242279</x:v>
+        <x:v>230204</x:v>
       </x:c>
     </x:row>
     <x:row r="225" ht="13" customHeight="1">
-      <x:c r="A225" s="13" t="s">
+      <x:c r="A225" s="14" t="s">
         <x:v>225</x:v>
       </x:c>
       <x:c r="B225" s="6">
-        <x:v>341904</x:v>
+        <x:v>286924</x:v>
       </x:c>
     </x:row>
     <x:row r="226" ht="13" customHeight="1">
-      <x:c r="A226" s="14" t="s">
+      <x:c r="A226" s="13" t="s">
         <x:v>226</x:v>
       </x:c>
       <x:c r="B226" s="8">
-        <x:v>366117</x:v>
+        <x:v>308948</x:v>
       </x:c>
     </x:row>
     <x:row r="227" ht="13" customHeight="1">
-      <x:c r="A227" s="13" t="s">
+      <x:c r="A227" s="14" t="s">
         <x:v>227</x:v>
       </x:c>
       <x:c r="B227" s="6">
-        <x:v>378752</x:v>
+        <x:v>325645</x:v>
       </x:c>
     </x:row>
     <x:row r="228" ht="13" customHeight="1">
-      <x:c r="A228" s="14" t="s">
+      <x:c r="A228" s="13" t="s">
         <x:v>228</x:v>
       </x:c>
       <x:c r="B228" s="8">
-        <x:v>373094</x:v>
+        <x:v>329223</x:v>
       </x:c>
     </x:row>
     <x:row r="229" ht="13" customHeight="1">
-      <x:c r="A229" s="13" t="s">
+      <x:c r="A229" s="14" t="s">
         <x:v>229</x:v>
       </x:c>
       <x:c r="B229" s="6">
-        <x:v>417720</x:v>
+        <x:v>334163</x:v>
       </x:c>
     </x:row>
     <x:row r="230" ht="13" customHeight="1">
-      <x:c r="A230" s="14" t="s">
+      <x:c r="A230" s="13" t="s">
         <x:v>230</x:v>
       </x:c>
       <x:c r="B230" s="8">
-        <x:v>342537</x:v>
+        <x:v>293297</x:v>
       </x:c>
     </x:row>
     <x:row r="231" ht="13" customHeight="1">
-      <x:c r="A231" s="13" t="s">
+      <x:c r="A231" s="14" t="s">
         <x:v>231</x:v>
       </x:c>
       <x:c r="B231" s="6">
-        <x:v>282778</x:v>
+        <x:v>252899</x:v>
       </x:c>
     </x:row>
     <x:row r="232" ht="13" customHeight="1">
-      <x:c r="A232" s="14" t="s">
+      <x:c r="A232" s="13" t="s">
         <x:v>232</x:v>
       </x:c>
       <x:c r="B232" s="8">
-        <x:v>407143</x:v>
+        <x:v>322655</x:v>
       </x:c>
     </x:row>
     <x:row r="233" ht="13" customHeight="1">
-      <x:c r="A233" s="15" t="s">
+      <x:c r="A233" s="14" t="s">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="B233" s="16">
-        <x:v>15393239</x:v>
+      <x:c r="B233" s="6">
+        <x:v>341410</x:v>
       </x:c>
     </x:row>
     <x:row r="234" ht="13" customHeight="1">
-      <x:c r="A234" s="14" t="s">
+      <x:c r="A234" s="13" t="s">
         <x:v>234</x:v>
       </x:c>
       <x:c r="B234" s="8">
-        <x:v>430863</x:v>
+        <x:v>368839</x:v>
       </x:c>
     </x:row>
     <x:row r="235" ht="13" customHeight="1">
-      <x:c r="A235" s="13" t="s">
+      <x:c r="A235" s="11" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="B235" s="6">
-        <x:v>446334</x:v>
+      <x:c r="B235" s="12">
+        <x:v>13517484</x:v>
       </x:c>
     </x:row>
     <x:row r="236" ht="13" customHeight="1">
-      <x:c r="A236" s="14" t="s">
+      <x:c r="A236" s="13" t="s">
         <x:v>236</x:v>
       </x:c>
       <x:c r="B236" s="8">
-        <x:v>445629</x:v>
+        <x:v>383776</x:v>
       </x:c>
     </x:row>
     <x:row r="237" ht="13" customHeight="1">
-      <x:c r="A237" s="13" t="s">
+      <x:c r="A237" s="14" t="s">
         <x:v>237</x:v>
       </x:c>
       <x:c r="B237" s="6">
-        <x:v>480330</x:v>
+        <x:v>402332</x:v>
       </x:c>
     </x:row>
     <x:row r="238" ht="13" customHeight="1">
-      <x:c r="A238" s="14" t="s">
+      <x:c r="A238" s="13" t="s">
         <x:v>238</x:v>
       </x:c>
       <x:c r="B238" s="8">
-        <x:v>410150</x:v>
+        <x:v>342604</x:v>
       </x:c>
     </x:row>
     <x:row r="239" ht="13" customHeight="1">
-      <x:c r="A239" s="13" t="s">
+      <x:c r="A239" s="14" t="s">
         <x:v>239</x:v>
       </x:c>
       <x:c r="B239" s="6">
-        <x:v>298497</x:v>
+        <x:v>248164</x:v>
       </x:c>
     </x:row>
     <x:row r="240" ht="13" customHeight="1">
-      <x:c r="A240" s="14" t="s">
+      <x:c r="A240" s="13" t="s">
         <x:v>240</x:v>
       </x:c>
       <x:c r="B240" s="8">
-        <x:v>481472</x:v>
+        <x:v>382627</x:v>
       </x:c>
     </x:row>
     <x:row r="241" ht="13" customHeight="1">
-      <x:c r="A241" s="13" t="s">
+      <x:c r="A241" s="14" t="s">
         <x:v>241</x:v>
       </x:c>
       <x:c r="B241" s="6">
-        <x:v>518696</x:v>
+        <x:v>414109</x:v>
       </x:c>
     </x:row>
     <x:row r="242" ht="13" customHeight="1">
-      <x:c r="A242" s="14" t="s">
+      <x:c r="A242" s="13" t="s">
         <x:v>242</x:v>
       </x:c>
       <x:c r="B242" s="8">
-        <x:v>534375</x:v>
+        <x:v>415847</x:v>
       </x:c>
     </x:row>
     <x:row r="243" ht="13" customHeight="1">
-      <x:c r="A243" s="13" t="s">
+      <x:c r="A243" s="14" t="s">
         <x:v>243</x:v>
       </x:c>
       <x:c r="B243" s="6">
-        <x:v>535543</x:v>
+        <x:v>434272</x:v>
       </x:c>
     </x:row>
     <x:row r="244" ht="13" customHeight="1">
-      <x:c r="A244" s="14" t="s">
+      <x:c r="A244" s="13" t="s">
         <x:v>244</x:v>
       </x:c>
       <x:c r="B244" s="8">
-        <x:v>590816</x:v>
+        <x:v>457998</x:v>
       </x:c>
     </x:row>
     <x:row r="245" ht="13" customHeight="1">
-      <x:c r="A245" s="13" t="s">
+      <x:c r="A245" s="14" t="s">
         <x:v>245</x:v>
       </x:c>
       <x:c r="B245" s="6">
-        <x:v>399637</x:v>
+        <x:v>370495</x:v>
       </x:c>
     </x:row>
     <x:row r="246" ht="13" customHeight="1">
-      <x:c r="A246" s="14" t="s">
+      <x:c r="A246" s="13" t="s">
         <x:v>246</x:v>
       </x:c>
       <x:c r="B246" s="8">
-        <x:v>304980</x:v>
+        <x:v>258590</x:v>
       </x:c>
     </x:row>
     <x:row r="247" ht="13" customHeight="1">
-      <x:c r="A247" s="13" t="s">
+      <x:c r="A247" s="14" t="s">
         <x:v>247</x:v>
       </x:c>
       <x:c r="B247" s="6">
-        <x:v>514058</x:v>
+        <x:v>448603</x:v>
       </x:c>
     </x:row>
     <x:row r="248" ht="13" customHeight="1">
-      <x:c r="A248" s="14" t="s">
+      <x:c r="A248" s="13" t="s">
         <x:v>248</x:v>
       </x:c>
       <x:c r="B248" s="8">
-        <x:v>541741</x:v>
+        <x:v>474449</x:v>
       </x:c>
     </x:row>
     <x:row r="249" ht="13" customHeight="1">
-      <x:c r="A249" s="13" t="s">
+      <x:c r="A249" s="14" t="s">
         <x:v>249</x:v>
       </x:c>
       <x:c r="B249" s="6">
-        <x:v>557519</x:v>
+        <x:v>485734</x:v>
       </x:c>
     </x:row>
     <x:row r="250" ht="13" customHeight="1">
-      <x:c r="A250" s="14" t="s">
+      <x:c r="A250" s="13" t="s">
         <x:v>250</x:v>
       </x:c>
       <x:c r="B250" s="8">
-        <x:v>567325</x:v>
+        <x:v>501868</x:v>
       </x:c>
     </x:row>
     <x:row r="251" ht="13" customHeight="1">
-      <x:c r="A251" s="13" t="s">
+      <x:c r="A251" s="14" t="s">
         <x:v>251</x:v>
       </x:c>
       <x:c r="B251" s="6">
-        <x:v>631824</x:v>
+        <x:v>545233</x:v>
       </x:c>
     </x:row>
     <x:row r="252" ht="13" customHeight="1">
-      <x:c r="A252" s="14" t="s">
+      <x:c r="A252" s="13" t="s">
         <x:v>252</x:v>
       </x:c>
       <x:c r="B252" s="8">
-        <x:v>470544</x:v>
+        <x:v>403469</x:v>
       </x:c>
     </x:row>
     <x:row r="253" ht="13" customHeight="1">
-      <x:c r="A253" s="13" t="s">
+      <x:c r="A253" s="14" t="s">
         <x:v>253</x:v>
       </x:c>
       <x:c r="B253" s="6">
-        <x:v>313468</x:v>
+        <x:v>288599</x:v>
       </x:c>
     </x:row>
     <x:row r="254" ht="13" customHeight="1">
-      <x:c r="A254" s="14" t="s">
+      <x:c r="A254" s="13" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="B254" s="8">
-        <x:v>520914</x:v>
+        <x:v>469825</x:v>
       </x:c>
     </x:row>
     <x:row r="255" ht="13" customHeight="1">
-      <x:c r="A255" s="13" t="s">
+      <x:c r="A255" s="14" t="s">
         <x:v>255</x:v>
       </x:c>
       <x:c r="B255" s="6">
-        <x:v>551849</x:v>
+        <x:v>492440</x:v>
       </x:c>
     </x:row>
     <x:row r="256" ht="13" customHeight="1">
-      <x:c r="A256" s="14" t="s">
+      <x:c r="A256" s="13" t="s">
         <x:v>256</x:v>
       </x:c>
       <x:c r="B256" s="8">
-        <x:v>555675</x:v>
+        <x:v>515627</x:v>
       </x:c>
     </x:row>
     <x:row r="257" ht="13" customHeight="1">
-      <x:c r="A257" s="13" t="s">
+      <x:c r="A257" s="14" t="s">
         <x:v>257</x:v>
       </x:c>
       <x:c r="B257" s="6">
-        <x:v>575944</x:v>
+        <x:v>525967</x:v>
       </x:c>
     </x:row>
     <x:row r="258" ht="13" customHeight="1">
-      <x:c r="A258" s="14" t="s">
+      <x:c r="A258" s="13" t="s">
         <x:v>258</x:v>
       </x:c>
       <x:c r="B258" s="8">
-        <x:v>630567</x:v>
+        <x:v>564123</x:v>
       </x:c>
     </x:row>
     <x:row r="259" ht="13" customHeight="1">
-      <x:c r="A259" s="13" t="s">
+      <x:c r="A259" s="14" t="s">
         <x:v>259</x:v>
       </x:c>
       <x:c r="B259" s="6">
-        <x:v>437506</x:v>
+        <x:v>379546</x:v>
       </x:c>
     </x:row>
     <x:row r="260" ht="13" customHeight="1">
-      <x:c r="A260" s="14" t="s">
+      <x:c r="A260" s="13" t="s">
         <x:v>260</x:v>
       </x:c>
       <x:c r="B260" s="8">
-        <x:v>301123</x:v>
+        <x:v>265742</x:v>
       </x:c>
     </x:row>
     <x:row r="261" ht="13" customHeight="1">
-      <x:c r="A261" s="13" t="s">
+      <x:c r="A261" s="14" t="s">
         <x:v>261</x:v>
       </x:c>
       <x:c r="B261" s="6">
-        <x:v>547867</x:v>
+        <x:v>488986</x:v>
       </x:c>
     </x:row>
     <x:row r="262" ht="13" customHeight="1">
-      <x:c r="A262" s="14" t="s">
+      <x:c r="A262" s="13" t="s">
         <x:v>262</x:v>
       </x:c>
       <x:c r="B262" s="8">
-        <x:v>570417</x:v>
+        <x:v>505227</x:v>
       </x:c>
     </x:row>
     <x:row r="263" ht="13" customHeight="1">
-      <x:c r="A263" s="13" t="s">
+      <x:c r="A263" s="14" t="s">
         <x:v>263</x:v>
       </x:c>
       <x:c r="B263" s="6">
-        <x:v>593025</x:v>
+        <x:v>513739</x:v>
       </x:c>
     </x:row>
     <x:row r="264" ht="13" customHeight="1">
-      <x:c r="A264" s="14" t="s">
+      <x:c r="A264" s="13" t="s">
         <x:v>264</x:v>
       </x:c>
       <x:c r="B264" s="8">
-        <x:v>634551</x:v>
+        <x:v>532124</x:v>
       </x:c>
     </x:row>
     <x:row r="265" ht="13" customHeight="1">
-      <x:c r="A265" s="15" t="s">
+      <x:c r="A265" s="14" t="s">
         <x:v>265</x:v>
       </x:c>
-      <x:c r="B265" s="16">
-        <x:v>15994776</x:v>
+      <x:c r="B265" s="6">
+        <x:v>592179</x:v>
       </x:c>
     </x:row>
     <x:row r="266" ht="13" customHeight="1">
-      <x:c r="A266" s="14" t="s">
+      <x:c r="A266" s="13" t="s">
         <x:v>266</x:v>
       </x:c>
       <x:c r="B266" s="8">
-        <x:v>685381</x:v>
+        <x:v>413190</x:v>
       </x:c>
     </x:row>
     <x:row r="267" ht="13" customHeight="1">
-      <x:c r="A267" s="13" t="s">
+      <x:c r="A267" s="11" t="s">
         <x:v>267</x:v>
       </x:c>
-      <x:c r="B267" s="6">
-        <x:v>465713</x:v>
+      <x:c r="B267" s="12">
+        <x:v>13616389</x:v>
       </x:c>
     </x:row>
     <x:row r="268" ht="13" customHeight="1">
-      <x:c r="A268" s="14" t="s">
+      <x:c r="A268" s="13" t="s">
         <x:v>268</x:v>
       </x:c>
       <x:c r="B268" s="8">
-        <x:v>321177</x:v>
+        <x:v>292419</x:v>
       </x:c>
     </x:row>
     <x:row r="269" ht="13" customHeight="1">
-      <x:c r="A269" s="13" t="s">
+      <x:c r="A269" s="14" t="s">
         <x:v>269</x:v>
       </x:c>
       <x:c r="B269" s="6">
-        <x:v>552874</x:v>
+        <x:v>490342</x:v>
       </x:c>
     </x:row>
     <x:row r="270" ht="13" customHeight="1">
-      <x:c r="A270" s="14" t="s">
+      <x:c r="A270" s="13" t="s">
         <x:v>270</x:v>
       </x:c>
       <x:c r="B270" s="8">
-        <x:v>573745</x:v>
+        <x:v>507980</x:v>
       </x:c>
     </x:row>
     <x:row r="271" ht="13" customHeight="1">
-      <x:c r="A271" s="13" t="s">
+      <x:c r="A271" s="14" t="s">
         <x:v>271</x:v>
       </x:c>
       <x:c r="B271" s="6">
-        <x:v>576537</x:v>
+        <x:v>506650</x:v>
       </x:c>
     </x:row>
     <x:row r="272" ht="13" customHeight="1">
-      <x:c r="A272" s="14" t="s">
+      <x:c r="A272" s="13" t="s">
         <x:v>272</x:v>
       </x:c>
       <x:c r="B272" s="8">
-        <x:v>606830</x:v>
+        <x:v>536612</x:v>
       </x:c>
     </x:row>
     <x:row r="273" ht="13" customHeight="1">
-      <x:c r="A273" s="13" t="s">
+      <x:c r="A273" s="14" t="s">
         <x:v>273</x:v>
       </x:c>
       <x:c r="B273" s="6">
-        <x:v>641346</x:v>
+        <x:v>555635</x:v>
       </x:c>
     </x:row>
     <x:row r="274" ht="13" customHeight="1">
-      <x:c r="A274" s="14" t="s">
+      <x:c r="A274" s="13" t="s">
         <x:v>274</x:v>
       </x:c>
       <x:c r="B274" s="8">
-        <x:v>439812</x:v>
+        <x:v>386638</x:v>
       </x:c>
     </x:row>
     <x:row r="275" ht="13" customHeight="1">
-      <x:c r="A275" s="13" t="s">
+      <x:c r="A275" s="14" t="s">
         <x:v>275</x:v>
       </x:c>
       <x:c r="B275" s="6">
-        <x:v>312581</x:v>
+        <x:v>286221</x:v>
       </x:c>
     </x:row>
     <x:row r="276" ht="13" customHeight="1">
-      <x:c r="A276" s="14" t="s">
+      <x:c r="A276" s="13" t="s">
         <x:v>276</x:v>
       </x:c>
       <x:c r="B276" s="8">
-        <x:v>534748</x:v>
+        <x:v>500563</x:v>
       </x:c>
     </x:row>
     <x:row r="277" ht="13" customHeight="1">
-      <x:c r="A277" s="13" t="s">
+      <x:c r="A277" s="14" t="s">
         <x:v>277</x:v>
       </x:c>
       <x:c r="B277" s="6">
-        <x:v>576764</x:v>
+        <x:v>508343</x:v>
       </x:c>
     </x:row>
     <x:row r="278" ht="13" customHeight="1">
-      <x:c r="A278" s="14" t="s">
+      <x:c r="A278" s="13" t="s">
         <x:v>278</x:v>
       </x:c>
       <x:c r="B278" s="8">
-        <x:v>575341</x:v>
+        <x:v>544085</x:v>
       </x:c>
     </x:row>
     <x:row r="279" ht="13" customHeight="1">
-      <x:c r="A279" s="13" t="s">
+      <x:c r="A279" s="14" t="s">
         <x:v>279</x:v>
       </x:c>
       <x:c r="B279" s="6">
-        <x:v>588138</x:v>
+        <x:v>520260</x:v>
       </x:c>
     </x:row>
     <x:row r="280" ht="13" customHeight="1">
-      <x:c r="A280" s="14" t="s">
+      <x:c r="A280" s="13" t="s">
         <x:v>280</x:v>
       </x:c>
       <x:c r="B280" s="8">
-        <x:v>659205</x:v>
+        <x:v>548449</x:v>
       </x:c>
     </x:row>
     <x:row r="281" ht="13" customHeight="1">
-      <x:c r="A281" s="13" t="s">
+      <x:c r="A281" s="14" t="s">
         <x:v>281</x:v>
       </x:c>
       <x:c r="B281" s="6">
-        <x:v>445859</x:v>
+        <x:v>376913</x:v>
       </x:c>
     </x:row>
     <x:row r="282" ht="13" customHeight="1">
-      <x:c r="A282" s="14" t="s">
+      <x:c r="A282" s="13" t="s">
         <x:v>282</x:v>
       </x:c>
       <x:c r="B282" s="8">
-        <x:v>354272</x:v>
+        <x:v>299705</x:v>
       </x:c>
     </x:row>
     <x:row r="283" ht="13" customHeight="1">
-      <x:c r="A283" s="13" t="s">
+      <x:c r="A283" s="14" t="s">
         <x:v>283</x:v>
       </x:c>
       <x:c r="B283" s="6">
-        <x:v>551476</x:v>
+        <x:v>467790</x:v>
       </x:c>
     </x:row>
     <x:row r="284" ht="13" customHeight="1">
-      <x:c r="A284" s="14" t="s">
+      <x:c r="A284" s="13" t="s">
         <x:v>284</x:v>
       </x:c>
       <x:c r="B284" s="8">
-        <x:v>582661</x:v>
+        <x:v>487231</x:v>
       </x:c>
     </x:row>
     <x:row r="285" ht="13" customHeight="1">
-      <x:c r="A285" s="13" t="s">
+      <x:c r="A285" s="14" t="s">
         <x:v>285</x:v>
       </x:c>
       <x:c r="B285" s="6">
-        <x:v>593604</x:v>
+        <x:v>489974</x:v>
       </x:c>
     </x:row>
     <x:row r="286" ht="13" customHeight="1">
-      <x:c r="A286" s="14" t="s">
+      <x:c r="A286" s="13" t="s">
         <x:v>286</x:v>
       </x:c>
       <x:c r="B286" s="8">
-        <x:v>590266</x:v>
+        <x:v>499289</x:v>
       </x:c>
     </x:row>
     <x:row r="287" ht="13" customHeight="1">
-      <x:c r="A287" s="13" t="s">
+      <x:c r="A287" s="14" t="s">
         <x:v>287</x:v>
       </x:c>
       <x:c r="B287" s="6">
-        <x:v>648127</x:v>
+        <x:v>534106</x:v>
       </x:c>
     </x:row>
     <x:row r="288" ht="13" customHeight="1">
-      <x:c r="A288" s="14" t="s">
+      <x:c r="A288" s="13" t="s">
         <x:v>288</x:v>
       </x:c>
       <x:c r="B288" s="8">
-        <x:v>410627</x:v>
+        <x:v>365886</x:v>
       </x:c>
     </x:row>
     <x:row r="289" ht="13" customHeight="1">
-      <x:c r="A289" s="13" t="s">
+      <x:c r="A289" s="14" t="s">
         <x:v>289</x:v>
       </x:c>
       <x:c r="B289" s="6">
-        <x:v>301477</x:v>
+        <x:v>254551</x:v>
       </x:c>
     </x:row>
     <x:row r="290" ht="13" customHeight="1">
-      <x:c r="A290" s="14" t="s">
+      <x:c r="A290" s="13" t="s">
         <x:v>290</x:v>
       </x:c>
       <x:c r="B290" s="8">
-        <x:v>550495</x:v>
+        <x:v>468543</x:v>
       </x:c>
     </x:row>
     <x:row r="291" ht="13" customHeight="1">
-      <x:c r="A291" s="13" t="s">
+      <x:c r="A291" s="14" t="s">
         <x:v>291</x:v>
       </x:c>
       <x:c r="B291" s="6">
-        <x:v>574579</x:v>
+        <x:v>508211</x:v>
       </x:c>
     </x:row>
     <x:row r="292" ht="13" customHeight="1">
-      <x:c r="A292" s="14" t="s">
+      <x:c r="A292" s="13" t="s">
         <x:v>292</x:v>
       </x:c>
       <x:c r="B292" s="8">
-        <x:v>570260</x:v>
+        <x:v>505632</x:v>
       </x:c>
     </x:row>
     <x:row r="293" ht="13" customHeight="1">
-      <x:c r="A293" s="13" t="s">
+      <x:c r="A293" s="14" t="s">
         <x:v>293</x:v>
       </x:c>
       <x:c r="B293" s="6">
-        <x:v>584138</x:v>
+        <x:v>533057</x:v>
       </x:c>
     </x:row>
     <x:row r="294" ht="13" customHeight="1">
-      <x:c r="A294" s="14" t="s">
+      <x:c r="A294" s="13" t="s">
         <x:v>294</x:v>
       </x:c>
       <x:c r="B294" s="8">
-        <x:v>661565</x:v>
+        <x:v>556928</x:v>
       </x:c>
     </x:row>
     <x:row r="295" ht="13" customHeight="1">
-      <x:c r="A295" s="13" t="s">
+      <x:c r="A295" s="14" t="s">
         <x:v>295</x:v>
       </x:c>
       <x:c r="B295" s="6">
-        <x:v>465178</x:v>
+        <x:v>355114</x:v>
       </x:c>
     </x:row>
     <x:row r="296" ht="13" customHeight="1">
-      <x:c r="A296" s="11" t="s">
+      <x:c r="A296" s="13" t="s">
         <x:v>296</x:v>
       </x:c>
-      <x:c r="B296" s="12">
-        <x:v>15668884</x:v>
+      <x:c r="B296" s="8">
+        <x:v>255728</x:v>
       </x:c>
     </x:row>
     <x:row r="297" ht="13" customHeight="1">
-      <x:c r="A297" s="13" t="s">
+      <x:c r="A297" s="14" t="s">
         <x:v>297</x:v>
       </x:c>
       <x:c r="B297" s="6">
-        <x:v>313162</x:v>
+        <x:v>473534</x:v>
       </x:c>
     </x:row>
     <x:row r="298" ht="13" customHeight="1">
-      <x:c r="A298" s="14" t="s">
+      <x:c r="A298" s="15" t="s">
         <x:v>298</x:v>
       </x:c>
-      <x:c r="B298" s="8">
-        <x:v>569616</x:v>
+      <x:c r="B298" s="16">
+        <x:v>13162446</x:v>
       </x:c>
     </x:row>
     <x:row r="299" ht="13" customHeight="1">
-      <x:c r="A299" s="13" t="s">
+      <x:c r="A299" s="14" t="s">
         <x:v>299</x:v>
       </x:c>
       <x:c r="B299" s="6">
-        <x:v>612446</x:v>
+        <x:v>497834</x:v>
       </x:c>
     </x:row>
     <x:row r="300" ht="13" customHeight="1">
-      <x:c r="A300" s="14" t="s">
+      <x:c r="A300" s="13" t="s">
         <x:v>300</x:v>
       </x:c>
       <x:c r="B300" s="8">
-        <x:v>605008</x:v>
+        <x:v>498701</x:v>
       </x:c>
     </x:row>
     <x:row r="301" ht="13" customHeight="1">
-      <x:c r="A301" s="13" t="s">
+      <x:c r="A301" s="14" t="s">
         <x:v>301</x:v>
       </x:c>
       <x:c r="B301" s="6">
-        <x:v>606683</x:v>
+        <x:v>512880</x:v>
       </x:c>
     </x:row>
     <x:row r="302" ht="13" customHeight="1">
-      <x:c r="A302" s="14" t="s">
+      <x:c r="A302" s="13" t="s">
         <x:v>302</x:v>
       </x:c>
       <x:c r="B302" s="8">
-        <x:v>660392</x:v>
+        <x:v>536290</x:v>
       </x:c>
     </x:row>
     <x:row r="303" ht="13" customHeight="1">
-      <x:c r="A303" s="13" t="s">
+      <x:c r="A303" s="14" t="s">
         <x:v>303</x:v>
       </x:c>
       <x:c r="B303" s="6">
-        <x:v>426659</x:v>
+        <x:v>369285</x:v>
       </x:c>
     </x:row>
     <x:row r="304" ht="13" customHeight="1">
-      <x:c r="A304" s="14" t="s">
+      <x:c r="A304" s="13" t="s">
         <x:v>304</x:v>
       </x:c>
       <x:c r="B304" s="8">
-        <x:v>314889</x:v>
+        <x:v>262407</x:v>
       </x:c>
     </x:row>
     <x:row r="305" ht="13" customHeight="1">
-      <x:c r="A305" s="13" t="s">
+      <x:c r="A305" s="14" t="s">
         <x:v>305</x:v>
       </x:c>
       <x:c r="B305" s="6">
-        <x:v>544050</x:v>
+        <x:v>472658</x:v>
       </x:c>
     </x:row>
     <x:row r="306" ht="13" customHeight="1">
-      <x:c r="A306" s="14" t="s">
+      <x:c r="A306" s="13" t="s">
         <x:v>306</x:v>
       </x:c>
       <x:c r="B306" s="8">
-        <x:v>577342</x:v>
+        <x:v>502441</x:v>
       </x:c>
     </x:row>
     <x:row r="307" ht="13" customHeight="1">
-      <x:c r="A307" s="13" t="s">
+      <x:c r="A307" s="14" t="s">
         <x:v>307</x:v>
       </x:c>
       <x:c r="B307" s="6">
-        <x:v>584744</x:v>
+        <x:v>495957</x:v>
       </x:c>
     </x:row>
     <x:row r="308" ht="13" customHeight="1">
-      <x:c r="A308" s="14" t="s">
+      <x:c r="A308" s="13" t="s">
         <x:v>308</x:v>
       </x:c>
       <x:c r="B308" s="8">
-        <x:v>603565</x:v>
+        <x:v>530580</x:v>
       </x:c>
     </x:row>
     <x:row r="309" ht="13" customHeight="1">
-      <x:c r="A309" s="13" t="s">
+      <x:c r="A309" s="14" t="s">
         <x:v>309</x:v>
       </x:c>
       <x:c r="B309" s="6">
-        <x:v>616319</x:v>
+        <x:v>506684</x:v>
       </x:c>
     </x:row>
     <x:row r="310" ht="13" customHeight="1">
-      <x:c r="A310" s="14" t="s">
+      <x:c r="A310" s="13" t="s">
         <x:v>310</x:v>
       </x:c>
       <x:c r="B310" s="8">
-        <x:v>436300</x:v>
+        <x:v>336929</x:v>
       </x:c>
     </x:row>
     <x:row r="311" ht="13" customHeight="1">
-      <x:c r="A311" s="13" t="s">
+      <x:c r="A311" s="14" t="s">
         <x:v>311</x:v>
       </x:c>
       <x:c r="B311" s="6">
-        <x:v>304443</x:v>
+        <x:v>233793</x:v>
       </x:c>
     </x:row>
     <x:row r="312" ht="13" customHeight="1">
-      <x:c r="A312" s="14" t="s">
+      <x:c r="A312" s="13" t="s">
         <x:v>312</x:v>
       </x:c>
       <x:c r="B312" s="8">
-        <x:v>428623</x:v>
+        <x:v>349919</x:v>
       </x:c>
     </x:row>
     <x:row r="313" ht="13" customHeight="1">
-      <x:c r="A313" s="13" t="s">
+      <x:c r="A313" s="14" t="s">
         <x:v>313</x:v>
       </x:c>
       <x:c r="B313" s="6">
-        <x:v>444430</x:v>
+        <x:v>374565</x:v>
       </x:c>
     </x:row>
     <x:row r="314" ht="13" customHeight="1">
-      <x:c r="A314" s="14" t="s">
+      <x:c r="A314" s="13" t="s">
         <x:v>314</x:v>
       </x:c>
       <x:c r="B314" s="8">
-        <x:v>446435</x:v>
+        <x:v>368632</x:v>
       </x:c>
     </x:row>
     <x:row r="315" ht="13" customHeight="1">
-      <x:c r="A315" s="13" t="s">
+      <x:c r="A315" s="14" t="s">
         <x:v>315</x:v>
       </x:c>
       <x:c r="B315" s="6">
-        <x:v>462154</x:v>
+        <x:v>376907</x:v>
       </x:c>
     </x:row>
     <x:row r="316" ht="13" customHeight="1">
-      <x:c r="A316" s="14" t="s">
+      <x:c r="A316" s="13" t="s">
         <x:v>316</x:v>
       </x:c>
       <x:c r="B316" s="8">
-        <x:v>458329</x:v>
+        <x:v>399195</x:v>
       </x:c>
     </x:row>
     <x:row r="317" ht="13" customHeight="1">
-      <x:c r="A317" s="13" t="s">
+      <x:c r="A317" s="14" t="s">
         <x:v>317</x:v>
       </x:c>
       <x:c r="B317" s="6">
-        <x:v>376312</x:v>
+        <x:v>331240</x:v>
       </x:c>
     </x:row>
     <x:row r="318" ht="13" customHeight="1">
-      <x:c r="A318" s="14" t="s">
+      <x:c r="A318" s="13" t="s">
         <x:v>318</x:v>
       </x:c>
       <x:c r="B318" s="8">
-        <x:v>297235</x:v>
+        <x:v>235811</x:v>
       </x:c>
     </x:row>
     <x:row r="319" ht="13" customHeight="1">
-      <x:c r="A319" s="13" t="s">
+      <x:c r="A319" s="14" t="s">
         <x:v>319</x:v>
       </x:c>
       <x:c r="B319" s="6">
-        <x:v>539399</x:v>
+        <x:v>445977</x:v>
       </x:c>
     </x:row>
     <x:row r="320" ht="13" customHeight="1">
-      <x:c r="A320" s="14" t="s">
+      <x:c r="A320" s="13" t="s">
         <x:v>320</x:v>
       </x:c>
       <x:c r="B320" s="8">
-        <x:v>583136</x:v>
+        <x:v>495392</x:v>
       </x:c>
     </x:row>
     <x:row r="321" ht="13" customHeight="1">
-      <x:c r="A321" s="13" t="s">
+      <x:c r="A321" s="14" t="s">
         <x:v>321</x:v>
       </x:c>
       <x:c r="B321" s="6">
-        <x:v>623537</x:v>
+        <x:v>486297</x:v>
       </x:c>
     </x:row>
     <x:row r="322" ht="13" customHeight="1">
-      <x:c r="A322" s="14" t="s">
+      <x:c r="A322" s="13" t="s">
         <x:v>322</x:v>
       </x:c>
       <x:c r="B322" s="8">
-        <x:v>618713</x:v>
+        <x:v>492334</x:v>
       </x:c>
     </x:row>
     <x:row r="323" ht="13" customHeight="1">
-      <x:c r="A323" s="13" t="s">
+      <x:c r="A323" s="14" t="s">
         <x:v>323</x:v>
       </x:c>
       <x:c r="B323" s="6">
-        <x:v>660280</x:v>
+        <x:v>523360</x:v>
       </x:c>
     </x:row>
     <x:row r="324" ht="13" customHeight="1">
-      <x:c r="A324" s="14" t="s">
+      <x:c r="A324" s="13" t="s">
         <x:v>324</x:v>
       </x:c>
       <x:c r="B324" s="8">
-        <x:v>450847</x:v>
+        <x:v>353851</x:v>
       </x:c>
     </x:row>
     <x:row r="325" ht="13" customHeight="1">
-      <x:c r="A325" s="13" t="s">
+      <x:c r="A325" s="14" t="s">
         <x:v>325</x:v>
       </x:c>
       <x:c r="B325" s="6">
-        <x:v>295364</x:v>
+        <x:v>241129</x:v>
       </x:c>
     </x:row>
     <x:row r="326" ht="13" customHeight="1">
-      <x:c r="A326" s="14" t="s">
+      <x:c r="A326" s="13" t="s">
         <x:v>326</x:v>
       </x:c>
       <x:c r="B326" s="8">
-        <x:v>554028</x:v>
+        <x:v>456350</x:v>
       </x:c>
     </x:row>
     <x:row r="327" ht="13" customHeight="1">
-      <x:c r="A327" s="13" t="s">
+      <x:c r="A327" s="14" t="s">
         <x:v>327</x:v>
       </x:c>
       <x:c r="B327" s="6">
-        <x:v>654444</x:v>
+        <x:v>478751</x:v>
       </x:c>
     </x:row>
     <x:row r="328" ht="13" customHeight="1">
-      <x:c r="A328" s="11" t="s">
+      <x:c r="A328" s="13" t="s">
         <x:v>328</x:v>
       </x:c>
-      <x:c r="B328" s="12">
-        <x:v>16845755</x:v>
+      <x:c r="B328" s="8">
+        <x:v>486684</x:v>
       </x:c>
     </x:row>
     <x:row r="329" ht="13" customHeight="1">
-      <x:c r="A329" s="13" t="s">
+      <x:c r="A329" s="14" t="s">
         <x:v>329</x:v>
       </x:c>
       <x:c r="B329" s="6">
-        <x:v>615918</x:v>
+        <x:v>509613</x:v>
       </x:c>
     </x:row>
     <x:row r="330" ht="13" customHeight="1">
-      <x:c r="A330" s="14" t="s">
+      <x:c r="A330" s="15" t="s">
         <x:v>330</x:v>
       </x:c>
-      <x:c r="B330" s="8">
-        <x:v>624326</x:v>
+      <x:c r="B330" s="16">
+        <x:v>13204733</x:v>
       </x:c>
     </x:row>
     <x:row r="331" ht="13" customHeight="1">
-      <x:c r="A331" s="13" t="s">
+      <x:c r="A331" s="14" t="s">
         <x:v>331</x:v>
       </x:c>
       <x:c r="B331" s="6">
-        <x:v>690547</x:v>
+        <x:v>578111</x:v>
       </x:c>
     </x:row>
     <x:row r="332" ht="13" customHeight="1">
-      <x:c r="A332" s="14" t="s">
+      <x:c r="A332" s="13" t="s">
         <x:v>332</x:v>
       </x:c>
       <x:c r="B332" s="8">
-        <x:v>460090</x:v>
+        <x:v>378041</x:v>
       </x:c>
     </x:row>
     <x:row r="333" ht="13" customHeight="1">
-      <x:c r="A333" s="13" t="s">
+      <x:c r="A333" s="14" t="s">
         <x:v>333</x:v>
       </x:c>
       <x:c r="B333" s="6">
-        <x:v>319818</x:v>
+        <x:v>251158</x:v>
       </x:c>
     </x:row>
     <x:row r="334" ht="13" customHeight="1">
-      <x:c r="A334" s="14" t="s">
+      <x:c r="A334" s="13" t="s">
         <x:v>334</x:v>
       </x:c>
       <x:c r="B334" s="8">
-        <x:v>559997</x:v>
+        <x:v>459262</x:v>
       </x:c>
     </x:row>
     <x:row r="335" ht="13" customHeight="1">
-      <x:c r="A335" s="13" t="s">
+      <x:c r="A335" s="14" t="s">
         <x:v>335</x:v>
       </x:c>
       <x:c r="B335" s="6">
-        <x:v>593027</x:v>
+        <x:v>473339</x:v>
       </x:c>
     </x:row>
     <x:row r="336" ht="13" customHeight="1">
-      <x:c r="A336" s="14" t="s">
+      <x:c r="A336" s="13" t="s">
         <x:v>336</x:v>
       </x:c>
       <x:c r="B336" s="8">
-        <x:v>611609</x:v>
+        <x:v>475156</x:v>
       </x:c>
     </x:row>
     <x:row r="337" ht="13" customHeight="1">
-      <x:c r="A337" s="13" t="s">
+      <x:c r="A337" s="14" t="s">
         <x:v>337</x:v>
       </x:c>
       <x:c r="B337" s="6">
-        <x:v>632890</x:v>
+        <x:v>492911</x:v>
       </x:c>
     </x:row>
     <x:row r="338" ht="13" customHeight="1">
-      <x:c r="A338" s="14" t="s">
+      <x:c r="A338" s="13" t="s">
         <x:v>338</x:v>
       </x:c>
       <x:c r="B338" s="8">
-        <x:v>665228</x:v>
+        <x:v>510847</x:v>
       </x:c>
     </x:row>
     <x:row r="339" ht="13" customHeight="1">
-      <x:c r="A339" s="13" t="s">
+      <x:c r="A339" s="14" t="s">
         <x:v>339</x:v>
       </x:c>
       <x:c r="B339" s="6">
-        <x:v>442882</x:v>
+        <x:v>342688</x:v>
       </x:c>
     </x:row>
     <x:row r="340" ht="13" customHeight="1">
-      <x:c r="A340" s="14" t="s">
+      <x:c r="A340" s="13" t="s">
         <x:v>340</x:v>
       </x:c>
       <x:c r="B340" s="8">
-        <x:v>315513</x:v>
+        <x:v>237923</x:v>
       </x:c>
     </x:row>
     <x:row r="341" ht="13" customHeight="1">
-      <x:c r="A341" s="13" t="s">
+      <x:c r="A341" s="14" t="s">
         <x:v>341</x:v>
       </x:c>
       <x:c r="B341" s="6">
-        <x:v>562086</x:v>
+        <x:v>450382</x:v>
       </x:c>
     </x:row>
     <x:row r="342" ht="13" customHeight="1">
-      <x:c r="A342" s="14" t="s">
+      <x:c r="A342" s="13" t="s">
         <x:v>342</x:v>
       </x:c>
       <x:c r="B342" s="8">
-        <x:v>637423</x:v>
+        <x:v>473436</x:v>
       </x:c>
     </x:row>
     <x:row r="343" ht="13" customHeight="1">
-      <x:c r="A343" s="13" t="s">
+      <x:c r="A343" s="14" t="s">
         <x:v>343</x:v>
       </x:c>
       <x:c r="B343" s="6">
-        <x:v>600043</x:v>
+        <x:v>473001</x:v>
       </x:c>
     </x:row>
     <x:row r="344" ht="13" customHeight="1">
-      <x:c r="A344" s="14" t="s">
+      <x:c r="A344" s="13" t="s">
         <x:v>344</x:v>
       </x:c>
       <x:c r="B344" s="8">
-        <x:v>652891</x:v>
+        <x:v>487634</x:v>
       </x:c>
     </x:row>
     <x:row r="345" ht="13" customHeight="1">
-      <x:c r="A345" s="13" t="s">
+      <x:c r="A345" s="14" t="s">
         <x:v>345</x:v>
       </x:c>
       <x:c r="B345" s="6">
-        <x:v>688978</x:v>
+        <x:v>547611</x:v>
       </x:c>
     </x:row>
     <x:row r="346" ht="13" customHeight="1">
-      <x:c r="A346" s="14" t="s">
+      <x:c r="A346" s="13" t="s">
         <x:v>346</x:v>
       </x:c>
       <x:c r="B346" s="8">
-        <x:v>466724</x:v>
+        <x:v>345773</x:v>
       </x:c>
     </x:row>
     <x:row r="347" ht="13" customHeight="1">
-      <x:c r="A347" s="13" t="s">
+      <x:c r="A347" s="14" t="s">
         <x:v>347</x:v>
       </x:c>
       <x:c r="B347" s="6">
-        <x:v>308168</x:v>
+        <x:v>244557</x:v>
       </x:c>
     </x:row>
     <x:row r="348" ht="13" customHeight="1">
-      <x:c r="A348" s="14" t="s">
+      <x:c r="A348" s="13" t="s">
         <x:v>348</x:v>
       </x:c>
       <x:c r="B348" s="8">
-        <x:v>560403</x:v>
+        <x:v>451930</x:v>
       </x:c>
     </x:row>
     <x:row r="349" ht="13" customHeight="1">
-      <x:c r="A349" s="13" t="s">
+      <x:c r="A349" s="14" t="s">
         <x:v>349</x:v>
       </x:c>
       <x:c r="B349" s="6">
-        <x:v>588403</x:v>
+        <x:v>484900</x:v>
       </x:c>
     </x:row>
     <x:row r="350" ht="13" customHeight="1">
-      <x:c r="A350" s="14" t="s">
+      <x:c r="A350" s="13" t="s">
         <x:v>350</x:v>
       </x:c>
       <x:c r="B350" s="8">
-        <x:v>602305</x:v>
+        <x:v>489092</x:v>
       </x:c>
     </x:row>
     <x:row r="351" ht="13" customHeight="1">
-      <x:c r="A351" s="13" t="s">
+      <x:c r="A351" s="14" t="s">
         <x:v>351</x:v>
       </x:c>
       <x:c r="B351" s="6">
-        <x:v>654080</x:v>
+        <x:v>524504</x:v>
       </x:c>
     </x:row>
     <x:row r="352" ht="13" customHeight="1">
-      <x:c r="A352" s="14" t="s">
+      <x:c r="A352" s="13" t="s">
         <x:v>352</x:v>
       </x:c>
       <x:c r="B352" s="8">
-        <x:v>709400</x:v>
+        <x:v>558020</x:v>
       </x:c>
     </x:row>
     <x:row r="353" ht="13" customHeight="1">
-      <x:c r="A353" s="13" t="s">
+      <x:c r="A353" s="14" t="s">
         <x:v>353</x:v>
       </x:c>
       <x:c r="B353" s="6">
-        <x:v>461954</x:v>
+        <x:v>364013</x:v>
       </x:c>
     </x:row>
     <x:row r="354" ht="13" customHeight="1">
-      <x:c r="A354" s="14" t="s">
+      <x:c r="A354" s="13" t="s">
         <x:v>354</x:v>
       </x:c>
       <x:c r="B354" s="8">
-        <x:v>326749</x:v>
+        <x:v>235045</x:v>
       </x:c>
     </x:row>
     <x:row r="355" ht="13" customHeight="1">
-      <x:c r="A355" s="13" t="s">
+      <x:c r="A355" s="14" t="s">
         <x:v>355</x:v>
       </x:c>
       <x:c r="B355" s="6">
-        <x:v>570436</x:v>
+        <x:v>450565</x:v>
       </x:c>
     </x:row>
     <x:row r="356" ht="13" customHeight="1">
-      <x:c r="A356" s="14" t="s">
+      <x:c r="A356" s="13" t="s">
         <x:v>356</x:v>
       </x:c>
       <x:c r="B356" s="8">
-        <x:v>608405</x:v>
+        <x:v>474186</x:v>
       </x:c>
     </x:row>
     <x:row r="357" ht="13" customHeight="1">
-      <x:c r="A357" s="13" t="s">
+      <x:c r="A357" s="14" t="s">
         <x:v>357</x:v>
       </x:c>
       <x:c r="B357" s="6">
-        <x:v>631250</x:v>
+        <x:v>479813</x:v>
       </x:c>
     </x:row>
     <x:row r="358" ht="13" customHeight="1">
-      <x:c r="A358" s="14" t="s">
+      <x:c r="A358" s="13" t="s">
         <x:v>358</x:v>
       </x:c>
       <x:c r="B358" s="8">
-        <x:v>684212</x:v>
+        <x:v>511832</x:v>
       </x:c>
     </x:row>
     <x:row r="359" ht="13" customHeight="1">
-      <x:c r="A359" s="15" t="s">
+      <x:c r="A359" s="14" t="s">
         <x:v>359</x:v>
       </x:c>
-      <x:c r="B359" s="16">
-        <x:v>15103771</x:v>
+      <x:c r="B359" s="6">
+        <x:v>582263</x:v>
       </x:c>
     </x:row>
     <x:row r="360" ht="13" customHeight="1">
-      <x:c r="A360" s="14" t="s">
+      <x:c r="A360" s="13" t="s">
         <x:v>360</x:v>
       </x:c>
       <x:c r="B360" s="8">
-        <x:v>739145</x:v>
+        <x:v>376740</x:v>
       </x:c>
     </x:row>
     <x:row r="361" ht="13" customHeight="1">
-      <x:c r="A361" s="13" t="s">
+      <x:c r="A361" s="11" t="s">
         <x:v>361</x:v>
       </x:c>
-      <x:c r="B361" s="6">
-        <x:v>506869</x:v>
+      <x:c r="B361" s="12">
+        <x:v>11401405</x:v>
       </x:c>
     </x:row>
     <x:row r="362" ht="13" customHeight="1">
-      <x:c r="A362" s="14" t="s">
+      <x:c r="A362" s="13" t="s">
         <x:v>362</x:v>
       </x:c>
       <x:c r="B362" s="8">
-        <x:v>359302</x:v>
+        <x:v>264752</x:v>
       </x:c>
     </x:row>
     <x:row r="363" ht="13" customHeight="1">
-      <x:c r="A363" s="13" t="s">
+      <x:c r="A363" s="14" t="s">
         <x:v>363</x:v>
       </x:c>
       <x:c r="B363" s="6">
-        <x:v>613833</x:v>
+        <x:v>469763</x:v>
       </x:c>
     </x:row>
     <x:row r="364" ht="13" customHeight="1">
-      <x:c r="A364" s="14" t="s">
+      <x:c r="A364" s="13" t="s">
         <x:v>364</x:v>
       </x:c>
       <x:c r="B364" s="8">
-        <x:v>631871</x:v>
+        <x:v>488789</x:v>
       </x:c>
     </x:row>
     <x:row r="365" ht="13" customHeight="1">
-      <x:c r="A365" s="13" t="s">
+      <x:c r="A365" s="14" t="s">
         <x:v>365</x:v>
       </x:c>
       <x:c r="B365" s="6">
-        <x:v>658262</x:v>
+        <x:v>495476</x:v>
       </x:c>
     </x:row>
     <x:row r="366" ht="13" customHeight="1">
-      <x:c r="A366" s="14" t="s">
+      <x:c r="A366" s="13" t="s">
         <x:v>366</x:v>
       </x:c>
       <x:c r="B366" s="8">
-        <x:v>657774</x:v>
+        <x:v>507515</x:v>
       </x:c>
     </x:row>
     <x:row r="367" ht="13" customHeight="1">
-      <x:c r="A367" s="13" t="s">
+      <x:c r="A367" s="14" t="s">
         <x:v>367</x:v>
       </x:c>
       <x:c r="B367" s="6">
-        <x:v>710359</x:v>
+        <x:v>562757</x:v>
       </x:c>
     </x:row>
     <x:row r="368" ht="13" customHeight="1">
-      <x:c r="A368" s="14" t="s">
+      <x:c r="A368" s="13" t="s">
         <x:v>368</x:v>
       </x:c>
       <x:c r="B368" s="8">
-        <x:v>489356</x:v>
+        <x:v>375991</x:v>
       </x:c>
     </x:row>
     <x:row r="369" ht="13" customHeight="1">
-      <x:c r="A369" s="13" t="s">
+      <x:c r="A369" s="14" t="s">
         <x:v>369</x:v>
       </x:c>
       <x:c r="B369" s="6">
-        <x:v>345603</x:v>
+        <x:v>260518</x:v>
       </x:c>
     </x:row>
     <x:row r="370" ht="13" customHeight="1">
-      <x:c r="A370" s="14" t="s">
+      <x:c r="A370" s="13" t="s">
         <x:v>370</x:v>
       </x:c>
       <x:c r="B370" s="8">
-        <x:v>599273</x:v>
+        <x:v>466274</x:v>
       </x:c>
     </x:row>
     <x:row r="371" ht="13" customHeight="1">
-      <x:c r="A371" s="13" t="s">
+      <x:c r="A371" s="14" t="s">
         <x:v>371</x:v>
       </x:c>
       <x:c r="B371" s="6">
-        <x:v>629144</x:v>
+        <x:v>487932</x:v>
       </x:c>
     </x:row>
     <x:row r="372" ht="13" customHeight="1">
-      <x:c r="A372" s="14" t="s">
+      <x:c r="A372" s="13" t="s">
         <x:v>372</x:v>
       </x:c>
       <x:c r="B372" s="8">
-        <x:v>640685</x:v>
+        <x:v>487816</x:v>
       </x:c>
     </x:row>
     <x:row r="373" ht="13" customHeight="1">
-      <x:c r="A373" s="13" t="s">
+      <x:c r="A373" s="14" t="s">
         <x:v>373</x:v>
       </x:c>
       <x:c r="B373" s="6">
-        <x:v>643245</x:v>
+        <x:v>510489</x:v>
       </x:c>
     </x:row>
     <x:row r="374" ht="13" customHeight="1">
-      <x:c r="A374" s="14" t="s">
+      <x:c r="A374" s="13" t="s">
         <x:v>374</x:v>
       </x:c>
       <x:c r="B374" s="8">
-        <x:v>685044</x:v>
+        <x:v>556043</x:v>
       </x:c>
     </x:row>
     <x:row r="375" ht="13" customHeight="1">
-      <x:c r="A375" s="13" t="s">
+      <x:c r="A375" s="14" t="s">
         <x:v>375</x:v>
       </x:c>
       <x:c r="B375" s="6">
-        <x:v>475534</x:v>
+        <x:v>363516</x:v>
       </x:c>
     </x:row>
     <x:row r="376" ht="13" customHeight="1">
-      <x:c r="A376" s="14" t="s">
+      <x:c r="A376" s="13" t="s">
         <x:v>376</x:v>
       </x:c>
       <x:c r="B376" s="8">
-        <x:v>337481</x:v>
+        <x:v>257398</x:v>
       </x:c>
     </x:row>
     <x:row r="377" ht="13" customHeight="1">
-      <x:c r="A377" s="13" t="s">
+      <x:c r="A377" s="14" t="s">
         <x:v>377</x:v>
       </x:c>
       <x:c r="B377" s="6">
-        <x:v>587116</x:v>
+        <x:v>470192</x:v>
       </x:c>
     </x:row>
     <x:row r="378" ht="13" customHeight="1">
-      <x:c r="A378" s="14" t="s">
+      <x:c r="A378" s="13" t="s">
         <x:v>378</x:v>
       </x:c>
       <x:c r="B378" s="8">
-        <x:v>614224</x:v>
+        <x:v>484637</x:v>
       </x:c>
     </x:row>
     <x:row r="379" ht="13" customHeight="1">
-      <x:c r="A379" s="13" t="s">
+      <x:c r="A379" s="14" t="s">
         <x:v>379</x:v>
       </x:c>
       <x:c r="B379" s="6">
-        <x:v>606008</x:v>
+        <x:v>487921</x:v>
       </x:c>
     </x:row>
     <x:row r="380" ht="13" customHeight="1">
-      <x:c r="A380" s="14" t="s">
+      <x:c r="A380" s="13" t="s">
         <x:v>380</x:v>
       </x:c>
       <x:c r="B380" s="8">
-        <x:v>528845</x:v>
+        <x:v>506930</x:v>
       </x:c>
     </x:row>
     <x:row r="381" ht="13" customHeight="1">
-      <x:c r="A381" s="13" t="s">
+      <x:c r="A381" s="14" t="s">
         <x:v>381</x:v>
       </x:c>
       <x:c r="B381" s="6">
-        <x:v>477233</x:v>
+        <x:v>492775</x:v>
       </x:c>
     </x:row>
     <x:row r="382" ht="13" customHeight="1">
-      <x:c r="A382" s="14" t="s">
+      <x:c r="A382" s="13" t="s">
         <x:v>382</x:v>
       </x:c>
       <x:c r="B382" s="8">
-        <x:v>292725</x:v>
+        <x:v>311296</x:v>
       </x:c>
     </x:row>
     <x:row r="383" ht="13" customHeight="1">
-      <x:c r="A383" s="13" t="s">
+      <x:c r="A383" s="14" t="s">
         <x:v>383</x:v>
       </x:c>
       <x:c r="B383" s="6">
-        <x:v>145526</x:v>
+        <x:v>243654</x:v>
       </x:c>
     </x:row>
     <x:row r="384" ht="13" customHeight="1">
-      <x:c r="A384" s="14" t="s">
+      <x:c r="A384" s="13" t="s">
         <x:v>384</x:v>
       </x:c>
       <x:c r="B384" s="8">
-        <x:v>157714</x:v>
+        <x:v>250705</x:v>
       </x:c>
     </x:row>
     <x:row r="385" ht="13" customHeight="1">
-      <x:c r="A385" s="13" t="s">
+      <x:c r="A385" s="14" t="s">
         <x:v>385</x:v>
       </x:c>
       <x:c r="B385" s="6">
-        <x:v>205139</x:v>
+        <x:v>116267</x:v>
       </x:c>
     </x:row>
     <x:row r="386" ht="13" customHeight="1">
-      <x:c r="A386" s="14" t="s">
+      <x:c r="A386" s="13" t="s">
         <x:v>386</x:v>
       </x:c>
       <x:c r="B386" s="8">
-        <x:v>361520</x:v>
+        <x:v>116859</x:v>
       </x:c>
     </x:row>
     <x:row r="387" ht="13" customHeight="1">
-      <x:c r="A387" s="13" t="s">
+      <x:c r="A387" s="14" t="s">
         <x:v>387</x:v>
       </x:c>
       <x:c r="B387" s="6">
-        <x:v>373478</x:v>
+        <x:v>158357</x:v>
       </x:c>
     </x:row>
     <x:row r="388" ht="13" customHeight="1">
-      <x:c r="A388" s="14" t="s">
+      <x:c r="A388" s="13" t="s">
         <x:v>388</x:v>
       </x:c>
       <x:c r="B388" s="8">
-        <x:v>422671</x:v>
+        <x:v>274163</x:v>
       </x:c>
     </x:row>
     <x:row r="389" ht="13" customHeight="1">
-      <x:c r="A389" s="13" t="s">
+      <x:c r="A389" s="14" t="s">
         <x:v>389</x:v>
       </x:c>
       <x:c r="B389" s="6">
-        <x:v>335374</x:v>
+        <x:v>247369</x:v>
       </x:c>
     </x:row>
     <x:row r="390" ht="13" customHeight="1">
-      <x:c r="A390" s="14" t="s">
+      <x:c r="A390" s="13" t="s">
         <x:v>390</x:v>
       </x:c>
       <x:c r="B390" s="8">
-        <x:v>273418</x:v>
+        <x:v>205694</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="391" ht="13" customHeight="1">
+      <x:c r="A391" s="14" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="B391" s="6">
+        <x:v>277457</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="392" ht="13" customHeight="1">
+      <x:c r="A392" s="13" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="B392" s="8">
+        <x:v>202100</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
